--- a/data_summary/deaths_by_vehicle_type.xlsx
+++ b/data_summary/deaths_by_vehicle_type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakeb\Downloads\Data Analytics\Course Work\Project_01\data_summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF74AA9B-E79E-4701-A1D6-246BC8070D21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922FA596-14D5-4F0C-927F-613021C84580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35340" yWindow="-3675" windowWidth="38700" windowHeight="18855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5505" windowWidth="51840" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="deaths_by_vehicle_type" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="162">
   <si>
     <t>Albania</t>
   </si>
@@ -503,6 +503,9 @@
   </si>
   <si>
     <t>Total %</t>
+  </si>
+  <si>
+    <t>Error Margin</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1190,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="29">
     <dxf>
       <fill>
         <patternFill>
@@ -1245,186 +1248,22 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1442,8 +1281,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1454,7 +1300,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1472,8 +1317,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1484,7 +1336,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1502,6 +1353,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1514,31 +1386,67 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1570,117 +1478,9 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <b/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1740,15 +1540,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G1048576" headerRowCount="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G1048576" headerRowCount="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" totalsRowLabel="Total" dataDxfId="43" totalsRowDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="39" totalsRowDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Distribution of road traffic deaths by type of road user (%)" headerRowDxfId="53" dataDxfId="38" totalsRowDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column3" headerRowDxfId="51" dataDxfId="37" totalsRowDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column4" headerRowDxfId="49" dataDxfId="36" totalsRowDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column5" headerRowDxfId="47" dataDxfId="35" totalsRowDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column6" totalsRowFunction="count" headerRowDxfId="45" dataDxfId="34" totalsRowDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" totalsRowLabel="Total" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Distribution of road traffic deaths by type of road user (%)" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column3" headerRowDxfId="19" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column4" headerRowDxfId="16" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column5" headerRowDxfId="13" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column6" totalsRowFunction="count" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2053,9 +1853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2072,7 +1870,7 @@
     <col min="11" max="11" width="1.7109375" customWidth="1"/>
     <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2109,13 +1907,6 @@
       <c r="L1" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -2148,19 +1939,15 @@
         <v>100</v>
       </c>
       <c r="L2" s="6" t="str">
-        <f>IF(AND(J2&gt;99,9,J2&lt;100.1),"Pass","Fail")</f>
-        <v>Pass</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="O2" s="9">
-        <f>COUNTIF(L:L,"Pass")</f>
-        <v>79</v>
-      </c>
-      <c r="P2" s="10">
-        <f>ROUND(O2/SUM($O$2:$O$3)*100,2)</f>
-        <v>53.38</v>
+        <f>IF(AND(J2&gt;=100-$P$6,J2&lt;=100+$P$6),"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N2" s="14"/>
+      <c r="O2" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2185,19 +1972,19 @@
         <v>100</v>
       </c>
       <c r="L3" s="6" t="str">
-        <f t="shared" ref="L3:L66" si="2">IF(AND(J3&gt;99,9,J3&lt;100.1),"Pass","Fail")</f>
-        <v>Pass</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="O3" s="12">
-        <f>COUNTIF(L:L,"Fail")</f>
-        <v>69</v>
-      </c>
-      <c r="P3" s="13">
-        <f>ROUND(O3/SUM($O$2:$O$3)*100,2)</f>
-        <v>46.62</v>
+        <f>IF(AND(J3&gt;=100-$P$6,J3&lt;=100+$P$6),"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O3" s="9">
+        <f>COUNTIF(L:L,"Pass")</f>
+        <v>89</v>
+      </c>
+      <c r="P3" s="10">
+        <f>ROUND(O3/SUM($O$3:$O$4)*100,2)</f>
+        <v>60.14</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -2225,8 +2012,19 @@
         <v>100</v>
       </c>
       <c r="L4" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>Pass</v>
+        <f>IF(AND(J4&gt;=100-$P$6,J4&lt;=100+$P$6),"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="O4" s="12">
+        <f>COUNTIF(L:L,"Fail")</f>
+        <v>59</v>
+      </c>
+      <c r="P4" s="13">
+        <f>ROUND(O4/SUM($O$3:$O$4)*100,2)</f>
+        <v>39.86</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -2260,7 +2058,7 @@
         <v>100</v>
       </c>
       <c r="L5" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J5&gt;=100-$P$6,J5&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2295,8 +2093,14 @@
         <v>100.00000000000001</v>
       </c>
       <c r="L6" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>Pass</v>
+        <f>IF(AND(J6&gt;=100-$P$6,J6&lt;=100+$P$6),"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="O6" t="s">
+        <v>161</v>
+      </c>
+      <c r="P6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -2330,7 +2134,7 @@
         <v>100</v>
       </c>
       <c r="L7" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J7&gt;=100-$P$6,J7&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2365,7 +2169,7 @@
         <v>99.9</v>
       </c>
       <c r="L8" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J8&gt;=100-$P$6,J8&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2400,8 +2204,8 @@
         <v>100.09999999999998</v>
       </c>
       <c r="L9" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>Fail</v>
+        <f>IF(AND(J9&gt;=100-$P$6,J9&lt;=100+$P$6),"Pass","Fail")</f>
+        <v>Pass</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -2435,7 +2239,7 @@
         <v>99.899999999999991</v>
       </c>
       <c r="L10" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J10&gt;=100-$P$6,J10&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2467,7 +2271,7 @@
         <v>100</v>
       </c>
       <c r="L11" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J11&gt;=100-$P$6,J11&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2499,7 +2303,7 @@
         <v>105.6</v>
       </c>
       <c r="L12" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J12&gt;=100-$P$6,J12&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -2534,7 +2338,7 @@
         <v>99.899999999999991</v>
       </c>
       <c r="L13" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J13&gt;=100-$P$6,J13&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2566,7 +2370,7 @@
         <v>100</v>
       </c>
       <c r="L14" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J14&gt;=100-$P$6,J14&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2601,7 +2405,7 @@
         <v>99.8</v>
       </c>
       <c r="L15" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J15&gt;=100-$P$6,J15&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2636,8 +2440,8 @@
         <v>100.1</v>
       </c>
       <c r="L16" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>Fail</v>
+        <f>IF(AND(J16&gt;=100-$P$6,J16&lt;=100+$P$6),"Pass","Fail")</f>
+        <v>Pass</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2671,7 +2475,7 @@
         <v>99.999999999999986</v>
       </c>
       <c r="L17" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J17&gt;=100-$P$6,J17&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2703,8 +2507,8 @@
         <v>100.1</v>
       </c>
       <c r="L18" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>Fail</v>
+        <f>IF(AND(J18&gt;=100-$P$6,J18&lt;=100+$P$6),"Pass","Fail")</f>
+        <v>Pass</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2738,7 +2542,7 @@
         <v>100</v>
       </c>
       <c r="L19" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J19&gt;=100-$P$6,J19&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2773,8 +2577,8 @@
         <v>100.1</v>
       </c>
       <c r="L20" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>Fail</v>
+        <f>IF(AND(J20&gt;=100-$P$6,J20&lt;=100+$P$6),"Pass","Fail")</f>
+        <v>Pass</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -2808,7 +2612,7 @@
         <v>100</v>
       </c>
       <c r="L21" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J21&gt;=100-$P$6,J21&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2843,7 +2647,7 @@
         <v>100</v>
       </c>
       <c r="L22" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J22&gt;=100-$P$6,J22&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2878,7 +2682,7 @@
         <v>100</v>
       </c>
       <c r="L23" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J23&gt;=100-$P$6,J23&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2913,8 +2717,8 @@
         <v>100.10000000000001</v>
       </c>
       <c r="L24" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>Fail</v>
+        <f>IF(AND(J24&gt;=100-$P$6,J24&lt;=100+$P$6),"Pass","Fail")</f>
+        <v>Pass</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2948,7 +2752,7 @@
         <v>100</v>
       </c>
       <c r="L25" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J25&gt;=100-$P$6,J25&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2983,7 +2787,7 @@
         <v>100</v>
       </c>
       <c r="L26" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J26&gt;=100-$P$6,J26&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3018,7 +2822,7 @@
         <v>100</v>
       </c>
       <c r="L27" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J27&gt;=100-$P$6,J27&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3053,7 +2857,7 @@
         <v>100.00000000000001</v>
       </c>
       <c r="L28" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J28&gt;=100-$P$6,J28&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3088,7 +2892,7 @@
         <v>100</v>
       </c>
       <c r="L29" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J29&gt;=100-$P$6,J29&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3123,7 +2927,7 @@
         <v>100</v>
       </c>
       <c r="L30" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J30&gt;=100-$P$6,J30&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3158,7 +2962,7 @@
         <v>100.00000000000001</v>
       </c>
       <c r="L31" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J31&gt;=100-$P$6,J31&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3193,7 +2997,7 @@
         <v>99.899999999999991</v>
       </c>
       <c r="L32" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J32&gt;=100-$P$6,J32&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3228,8 +3032,8 @@
         <v>100.1</v>
       </c>
       <c r="L33" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>Fail</v>
+        <f>IF(AND(J33&gt;=100-$P$6,J33&lt;=100+$P$6),"Pass","Fail")</f>
+        <v>Pass</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3263,7 +3067,7 @@
         <v>99.999999999999986</v>
       </c>
       <c r="L34" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J34&gt;=100-$P$6,J34&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3298,7 +3102,7 @@
         <v>100.00000000000001</v>
       </c>
       <c r="L35" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J35&gt;=100-$P$6,J35&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3333,7 +3137,7 @@
         <v>100</v>
       </c>
       <c r="L36" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J36&gt;=100-$P$6,J36&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3368,7 +3172,7 @@
         <v>100</v>
       </c>
       <c r="L37" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J37&gt;=100-$P$6,J37&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3403,7 +3207,7 @@
         <v>99.9</v>
       </c>
       <c r="L38" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J38&gt;=100-$P$6,J38&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3438,7 +3242,7 @@
         <v>99.9</v>
       </c>
       <c r="L39" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J39&gt;=100-$P$6,J39&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3473,7 +3277,7 @@
         <v>99.999999999999986</v>
       </c>
       <c r="L40" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J40&gt;=100-$P$6,J40&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3508,7 +3312,7 @@
         <v>100.00000000000001</v>
       </c>
       <c r="L41" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J41&gt;=100-$P$6,J41&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3543,7 +3347,7 @@
         <v>100</v>
       </c>
       <c r="L42" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J42&gt;=100-$P$6,J42&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3578,7 +3382,7 @@
         <v>100</v>
       </c>
       <c r="L43" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J43&gt;=100-$P$6,J43&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3610,7 +3414,7 @@
         <v>99.9</v>
       </c>
       <c r="L44" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J44&gt;=100-$P$6,J44&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3639,7 +3443,7 @@
         <v>100</v>
       </c>
       <c r="L45" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J45&gt;=100-$P$6,J45&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3668,7 +3472,7 @@
         <v>100</v>
       </c>
       <c r="L46" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J46&gt;=100-$P$6,J46&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3703,7 +3507,7 @@
         <v>99.9</v>
       </c>
       <c r="L47" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J47&gt;=100-$P$6,J47&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3738,8 +3542,8 @@
         <v>100.10000000000001</v>
       </c>
       <c r="L48" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>Fail</v>
+        <f>IF(AND(J48&gt;=100-$P$6,J48&lt;=100+$P$6),"Pass","Fail")</f>
+        <v>Pass</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -3773,7 +3577,7 @@
         <v>100</v>
       </c>
       <c r="L49" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J49&gt;=100-$P$6,J49&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3808,8 +3612,8 @@
         <v>100.1</v>
       </c>
       <c r="L50" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>Fail</v>
+        <f>IF(AND(J50&gt;=100-$P$6,J50&lt;=100+$P$6),"Pass","Fail")</f>
+        <v>Pass</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3843,7 +3647,7 @@
         <v>100</v>
       </c>
       <c r="L51" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J51&gt;=100-$P$6,J51&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3878,7 +3682,7 @@
         <v>100</v>
       </c>
       <c r="L52" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J52&gt;=100-$P$6,J52&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3913,7 +3717,7 @@
         <v>100</v>
       </c>
       <c r="L53" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J53&gt;=100-$P$6,J53&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3948,7 +3752,7 @@
         <v>100</v>
       </c>
       <c r="L54" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J54&gt;=100-$P$6,J54&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3983,7 +3787,7 @@
         <v>100</v>
       </c>
       <c r="L55" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J55&gt;=100-$P$6,J55&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -4018,7 +3822,7 @@
         <v>99.899999999999991</v>
       </c>
       <c r="L56" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J56&gt;=100-$P$6,J56&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -4053,7 +3857,7 @@
         <v>99.999999999999986</v>
       </c>
       <c r="L57" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J57&gt;=100-$P$6,J57&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -4088,7 +3892,7 @@
         <v>100</v>
       </c>
       <c r="L58" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J58&gt;=100-$P$6,J58&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -4123,7 +3927,7 @@
         <v>99.9</v>
       </c>
       <c r="L59" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J59&gt;=100-$P$6,J59&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -4158,7 +3962,7 @@
         <v>100</v>
       </c>
       <c r="L60" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J60&gt;=100-$P$6,J60&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -4193,7 +3997,7 @@
         <v>99.9</v>
       </c>
       <c r="L61" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J61&gt;=100-$P$6,J61&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -4228,7 +4032,7 @@
         <v>100</v>
       </c>
       <c r="L62" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J62&gt;=100-$P$6,J62&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -4263,7 +4067,7 @@
         <v>100.00000000000001</v>
       </c>
       <c r="L63" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J63&gt;=100-$P$6,J63&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -4298,8 +4102,8 @@
         <v>100.10000000000001</v>
       </c>
       <c r="L64" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>Fail</v>
+        <f>IF(AND(J64&gt;=100-$P$6,J64&lt;=100+$P$6),"Pass","Fail")</f>
+        <v>Pass</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -4333,7 +4137,7 @@
         <v>100.69999999999999</v>
       </c>
       <c r="L65" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J65&gt;=100-$P$6,J65&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -4368,7 +4172,7 @@
         <v>100</v>
       </c>
       <c r="L66" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(J66&gt;=100-$P$6,J66&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -4395,15 +4199,15 @@
         <v>3.3</v>
       </c>
       <c r="I67" s="2">
-        <f t="shared" ref="I67:I130" si="3">SUM(C67:G67)</f>
+        <f t="shared" ref="I67:I130" si="2">SUM(C67:G67)</f>
         <v>99.999999999999986</v>
       </c>
       <c r="J67" s="2">
-        <f t="shared" ref="J67:J130" si="4">I67</f>
+        <f t="shared" ref="J67:J130" si="3">I67</f>
         <v>99.999999999999986</v>
       </c>
       <c r="L67" s="6" t="str">
-        <f t="shared" ref="L67:L130" si="5">IF(AND(J67&gt;99,9,J67&lt;100.1),"Pass","Fail")</f>
+        <f>IF(AND(J67&gt;=100-$P$6,J67&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -4430,15 +4234,15 @@
         <v>0</v>
       </c>
       <c r="I68" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J68" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J68" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
       <c r="L68" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J68&gt;=100-$P$6,J68&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -4465,15 +4269,15 @@
         <v>0</v>
       </c>
       <c r="I69" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J69" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J69" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
       <c r="L69" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J69&gt;=100-$P$6,J69&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -4500,15 +4304,15 @@
         <v>30</v>
       </c>
       <c r="I70" s="2">
+        <f t="shared" si="2"/>
+        <v>99.9</v>
+      </c>
+      <c r="J70" s="2">
         <f t="shared" si="3"/>
         <v>99.9</v>
       </c>
-      <c r="J70" s="2">
-        <f t="shared" si="4"/>
-        <v>99.9</v>
-      </c>
       <c r="L70" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J70&gt;=100-$P$6,J70&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -4535,15 +4339,15 @@
         <v>3.8</v>
       </c>
       <c r="I71" s="2">
+        <f t="shared" si="2"/>
+        <v>99.899999999999991</v>
+      </c>
+      <c r="J71" s="2">
         <f t="shared" si="3"/>
         <v>99.899999999999991</v>
       </c>
-      <c r="J71" s="2">
-        <f t="shared" si="4"/>
-        <v>99.899999999999991</v>
-      </c>
       <c r="L71" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J71&gt;=100-$P$6,J71&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -4567,16 +4371,16 @@
         <v>0</v>
       </c>
       <c r="I72" s="2">
+        <f t="shared" si="2"/>
+        <v>100.1</v>
+      </c>
+      <c r="J72" s="2">
         <f t="shared" si="3"/>
         <v>100.1</v>
       </c>
-      <c r="J72" s="2">
-        <f t="shared" si="4"/>
-        <v>100.1</v>
-      </c>
       <c r="L72" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>Fail</v>
+        <f>IF(AND(J72&gt;=100-$P$6,J72&lt;=100+$P$6),"Pass","Fail")</f>
+        <v>Pass</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -4602,15 +4406,15 @@
         <v>0</v>
       </c>
       <c r="I73" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J73" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J73" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
       <c r="L73" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J73&gt;=100-$P$6,J73&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -4637,15 +4441,15 @@
         <v>1</v>
       </c>
       <c r="I74" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J74" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J74" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
       <c r="L74" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J74&gt;=100-$P$6,J74&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -4672,15 +4476,15 @@
         <v>0</v>
       </c>
       <c r="I75" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J75" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J75" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
       <c r="L75" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J75&gt;=100-$P$6,J75&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -4701,15 +4505,15 @@
         <v>0</v>
       </c>
       <c r="I76" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J76" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J76" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
       <c r="L76" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J76&gt;=100-$P$6,J76&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -4736,15 +4540,15 @@
         <v>0.1</v>
       </c>
       <c r="I77" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J77" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J77" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
       <c r="L77" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J77&gt;=100-$P$6,J77&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -4771,15 +4575,15 @@
         <v>0</v>
       </c>
       <c r="I78" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J78" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J78" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
       <c r="L78" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J78&gt;=100-$P$6,J78&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -4806,15 +4610,15 @@
         <v>15.9</v>
       </c>
       <c r="I79" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J79" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J79" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
       <c r="L79" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J79&gt;=100-$P$6,J79&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -4841,15 +4645,15 @@
         <v>9.1</v>
       </c>
       <c r="I80" s="2">
+        <f t="shared" si="2"/>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="J80" s="2">
         <f t="shared" si="3"/>
         <v>99.999999999999986</v>
       </c>
-      <c r="J80" s="2">
-        <f t="shared" si="4"/>
-        <v>99.999999999999986</v>
-      </c>
       <c r="L80" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J80&gt;=100-$P$6,J80&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -4867,15 +4671,15 @@
         <v>66.7</v>
       </c>
       <c r="I81" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J81" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J81" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
       <c r="L81" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J81&gt;=100-$P$6,J81&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -4902,15 +4706,15 @@
         <v>0</v>
       </c>
       <c r="I82" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J82" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J82" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
       <c r="L82" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J82&gt;=100-$P$6,J82&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -4937,15 +4741,15 @@
         <v>42.4</v>
       </c>
       <c r="I83" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J83" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J83" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
       <c r="L83" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J83&gt;=100-$P$6,J83&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -4972,15 +4776,15 @@
         <v>0</v>
       </c>
       <c r="I84" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J84" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J84" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
       <c r="L84" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J84&gt;=100-$P$6,J84&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -5007,15 +4811,15 @@
         <v>12.2</v>
       </c>
       <c r="I85" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J85" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J85" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
       <c r="L85" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J85&gt;=100-$P$6,J85&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -5042,15 +4846,15 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="I86" s="2">
+        <f t="shared" si="2"/>
+        <v>99.899999999999991</v>
+      </c>
+      <c r="J86" s="2">
         <f t="shared" si="3"/>
         <v>99.899999999999991</v>
       </c>
-      <c r="J86" s="2">
-        <f t="shared" si="4"/>
-        <v>99.899999999999991</v>
-      </c>
       <c r="L86" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J86&gt;=100-$P$6,J86&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -5077,15 +4881,15 @@
         <v>7.9</v>
       </c>
       <c r="I87" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J87" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J87" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
       <c r="L87" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J87&gt;=100-$P$6,J87&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -5112,15 +4916,15 @@
         <v>7.1</v>
       </c>
       <c r="I88" s="2">
+        <f t="shared" si="2"/>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="J88" s="2">
         <f t="shared" si="3"/>
         <v>99.999999999999986</v>
       </c>
-      <c r="J88" s="2">
-        <f t="shared" si="4"/>
-        <v>99.999999999999986</v>
-      </c>
       <c r="L88" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J88&gt;=100-$P$6,J88&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -5147,15 +4951,15 @@
         <v>1.6</v>
       </c>
       <c r="I89" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J89" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J89" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
       <c r="L89" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J89&gt;=100-$P$6,J89&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -5182,15 +4986,15 @@
         <v>6.4</v>
       </c>
       <c r="I90" s="2">
+        <f t="shared" si="2"/>
+        <v>99.9</v>
+      </c>
+      <c r="J90" s="2">
         <f t="shared" si="3"/>
         <v>99.9</v>
       </c>
-      <c r="J90" s="2">
-        <f t="shared" si="4"/>
-        <v>99.9</v>
-      </c>
       <c r="L90" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J90&gt;=100-$P$6,J90&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -5217,15 +5021,15 @@
         <v>12.5</v>
       </c>
       <c r="I91" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J91" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J91" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
       <c r="L91" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J91&gt;=100-$P$6,J91&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -5240,15 +5044,15 @@
         <v>49.6</v>
       </c>
       <c r="I92" s="2">
+        <f t="shared" si="2"/>
+        <v>49.6</v>
+      </c>
+      <c r="J92" s="2">
         <f t="shared" si="3"/>
         <v>49.6</v>
       </c>
-      <c r="J92" s="2">
-        <f t="shared" si="4"/>
-        <v>49.6</v>
-      </c>
       <c r="L92" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J92&gt;=100-$P$6,J92&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -5275,15 +5079,15 @@
         <v>12.6</v>
       </c>
       <c r="I93" s="2">
+        <f t="shared" si="2"/>
+        <v>115.10000000000001</v>
+      </c>
+      <c r="J93" s="2">
         <f t="shared" si="3"/>
         <v>115.10000000000001</v>
       </c>
-      <c r="J93" s="2">
-        <f t="shared" si="4"/>
-        <v>115.10000000000001</v>
-      </c>
       <c r="L93" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J93&gt;=100-$P$6,J93&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -5310,15 +5114,15 @@
         <v>10.7</v>
       </c>
       <c r="I94" s="2">
+        <f t="shared" si="2"/>
+        <v>74.5</v>
+      </c>
+      <c r="J94" s="2">
         <f t="shared" si="3"/>
         <v>74.5</v>
       </c>
-      <c r="J94" s="2">
-        <f t="shared" si="4"/>
-        <v>74.5</v>
-      </c>
       <c r="L94" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J94&gt;=100-$P$6,J94&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -5342,15 +5146,15 @@
         <v>8.1</v>
       </c>
       <c r="I95" s="2">
+        <f t="shared" si="2"/>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="J95" s="2">
         <f t="shared" si="3"/>
         <v>35.200000000000003</v>
       </c>
-      <c r="J95" s="2">
-        <f t="shared" si="4"/>
-        <v>35.200000000000003</v>
-      </c>
       <c r="L95" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J95&gt;=100-$P$6,J95&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -5365,15 +5169,15 @@
         <v>32.299999999999997</v>
       </c>
       <c r="I96" s="2">
+        <f t="shared" si="2"/>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="J96" s="2">
         <f t="shared" si="3"/>
         <v>32.299999999999997</v>
       </c>
-      <c r="J96" s="2">
-        <f t="shared" si="4"/>
-        <v>32.299999999999997</v>
-      </c>
       <c r="L96" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J96&gt;=100-$P$6,J96&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -5388,15 +5192,15 @@
         <v>100</v>
       </c>
       <c r="I97" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J97" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J97" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
       <c r="L97" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J97&gt;=100-$P$6,J97&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -5423,15 +5227,15 @@
         <v>17.5</v>
       </c>
       <c r="I98" s="2">
+        <f t="shared" si="2"/>
+        <v>120.1</v>
+      </c>
+      <c r="J98" s="2">
         <f t="shared" si="3"/>
         <v>120.1</v>
       </c>
-      <c r="J98" s="2">
-        <f t="shared" si="4"/>
-        <v>120.1</v>
-      </c>
       <c r="L98" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J98&gt;=100-$P$6,J98&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -5452,15 +5256,15 @@
         <v>0</v>
       </c>
       <c r="I99" s="2">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="J99" s="2">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="J99" s="2">
-        <f t="shared" si="4"/>
-        <v>64</v>
-      </c>
       <c r="L99" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J99&gt;=100-$P$6,J99&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -5487,15 +5291,15 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="I100" s="2">
+        <f t="shared" si="2"/>
+        <v>86.100000000000009</v>
+      </c>
+      <c r="J100" s="2">
         <f t="shared" si="3"/>
         <v>86.100000000000009</v>
       </c>
-      <c r="J100" s="2">
-        <f t="shared" si="4"/>
-        <v>86.100000000000009</v>
-      </c>
       <c r="L100" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J100&gt;=100-$P$6,J100&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -5522,15 +5326,15 @@
         <v>88.6</v>
       </c>
       <c r="I101" s="2">
+        <f t="shared" si="2"/>
+        <v>97.8</v>
+      </c>
+      <c r="J101" s="2">
         <f t="shared" si="3"/>
         <v>97.8</v>
       </c>
-      <c r="J101" s="2">
-        <f t="shared" si="4"/>
-        <v>97.8</v>
-      </c>
       <c r="L101" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J101&gt;=100-$P$6,J101&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -5557,15 +5361,15 @@
         <v>93.9</v>
       </c>
       <c r="I102" s="2">
+        <f t="shared" si="2"/>
+        <v>146.5</v>
+      </c>
+      <c r="J102" s="2">
         <f t="shared" si="3"/>
         <v>146.5</v>
       </c>
-      <c r="J102" s="2">
-        <f t="shared" si="4"/>
-        <v>146.5</v>
-      </c>
       <c r="L102" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J102&gt;=100-$P$6,J102&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -5592,15 +5396,15 @@
         <v>4.3</v>
       </c>
       <c r="I103" s="2">
+        <f t="shared" si="2"/>
+        <v>100.8</v>
+      </c>
+      <c r="J103" s="2">
         <f t="shared" si="3"/>
         <v>100.8</v>
       </c>
-      <c r="J103" s="2">
-        <f t="shared" si="4"/>
-        <v>100.8</v>
-      </c>
       <c r="L103" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J103&gt;=100-$P$6,J103&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -5627,15 +5431,15 @@
         <v>6.4</v>
       </c>
       <c r="I104" s="2">
+        <f t="shared" si="2"/>
+        <v>100.7</v>
+      </c>
+      <c r="J104" s="2">
         <f t="shared" si="3"/>
         <v>100.7</v>
       </c>
-      <c r="J104" s="2">
-        <f t="shared" si="4"/>
-        <v>100.7</v>
-      </c>
       <c r="L104" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J104&gt;=100-$P$6,J104&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -5659,15 +5463,15 @@
         <v>14.6</v>
       </c>
       <c r="I105" s="2">
+        <f t="shared" si="2"/>
+        <v>51.6</v>
+      </c>
+      <c r="J105" s="2">
         <f t="shared" si="3"/>
         <v>51.6</v>
       </c>
-      <c r="J105" s="2">
-        <f t="shared" si="4"/>
-        <v>51.6</v>
-      </c>
       <c r="L105" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J105&gt;=100-$P$6,J105&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -5694,15 +5498,15 @@
         <v>33.700000000000003</v>
       </c>
       <c r="I106" s="2">
+        <f t="shared" si="2"/>
+        <v>117.60000000000001</v>
+      </c>
+      <c r="J106" s="2">
         <f t="shared" si="3"/>
         <v>117.60000000000001</v>
       </c>
-      <c r="J106" s="2">
-        <f t="shared" si="4"/>
-        <v>117.60000000000001</v>
-      </c>
       <c r="L106" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J106&gt;=100-$P$6,J106&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -5729,15 +5533,15 @@
         <v>58.1</v>
       </c>
       <c r="I107" s="2">
+        <f t="shared" si="2"/>
+        <v>128.4</v>
+      </c>
+      <c r="J107" s="2">
         <f t="shared" si="3"/>
         <v>128.4</v>
       </c>
-      <c r="J107" s="2">
-        <f t="shared" si="4"/>
-        <v>128.4</v>
-      </c>
       <c r="L107" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J107&gt;=100-$P$6,J107&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -5761,15 +5565,15 @@
         <v>4.7</v>
       </c>
       <c r="I108" s="2">
+        <f t="shared" si="2"/>
+        <v>53.400000000000006</v>
+      </c>
+      <c r="J108" s="2">
         <f t="shared" si="3"/>
         <v>53.400000000000006</v>
       </c>
-      <c r="J108" s="2">
-        <f t="shared" si="4"/>
-        <v>53.400000000000006</v>
-      </c>
       <c r="L108" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J108&gt;=100-$P$6,J108&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -5796,15 +5600,15 @@
         <v>3.3</v>
       </c>
       <c r="I109" s="2">
+        <f t="shared" si="2"/>
+        <v>111.5</v>
+      </c>
+      <c r="J109" s="2">
         <f t="shared" si="3"/>
         <v>111.5</v>
       </c>
-      <c r="J109" s="2">
-        <f t="shared" si="4"/>
-        <v>111.5</v>
-      </c>
       <c r="L109" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J109&gt;=100-$P$6,J109&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -5828,15 +5632,15 @@
         <v>5.3</v>
       </c>
       <c r="I110" s="2">
+        <f t="shared" si="2"/>
+        <v>42.4</v>
+      </c>
+      <c r="J110" s="2">
         <f t="shared" si="3"/>
         <v>42.4</v>
       </c>
-      <c r="J110" s="2">
-        <f t="shared" si="4"/>
-        <v>42.4</v>
-      </c>
       <c r="L110" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J110&gt;=100-$P$6,J110&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -5851,15 +5655,15 @@
         <v>46.7</v>
       </c>
       <c r="I111" s="2">
+        <f t="shared" si="2"/>
+        <v>46.7</v>
+      </c>
+      <c r="J111" s="2">
         <f t="shared" si="3"/>
         <v>46.7</v>
       </c>
-      <c r="J111" s="2">
-        <f t="shared" si="4"/>
-        <v>46.7</v>
-      </c>
       <c r="L111" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J111&gt;=100-$P$6,J111&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -5886,15 +5690,15 @@
         <v>6.7</v>
       </c>
       <c r="I112" s="2">
+        <f t="shared" si="2"/>
+        <v>94.5</v>
+      </c>
+      <c r="J112" s="2">
         <f t="shared" si="3"/>
         <v>94.5</v>
       </c>
-      <c r="J112" s="2">
-        <f t="shared" si="4"/>
-        <v>94.5</v>
-      </c>
       <c r="L112" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J112&gt;=100-$P$6,J112&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -5909,15 +5713,15 @@
         <v>47.1</v>
       </c>
       <c r="I113" s="2">
+        <f t="shared" si="2"/>
+        <v>47.1</v>
+      </c>
+      <c r="J113" s="2">
         <f t="shared" si="3"/>
         <v>47.1</v>
       </c>
-      <c r="J113" s="2">
-        <f t="shared" si="4"/>
-        <v>47.1</v>
-      </c>
       <c r="L113" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J113&gt;=100-$P$6,J113&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -5938,15 +5742,15 @@
         <v>5.9</v>
       </c>
       <c r="I114" s="2">
+        <f t="shared" si="2"/>
+        <v>11.8</v>
+      </c>
+      <c r="J114" s="2">
         <f t="shared" si="3"/>
         <v>11.8</v>
       </c>
-      <c r="J114" s="2">
-        <f t="shared" si="4"/>
-        <v>11.8</v>
-      </c>
       <c r="L114" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J114&gt;=100-$P$6,J114&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -5964,15 +5768,15 @@
         <v>23.1</v>
       </c>
       <c r="I115" s="2">
+        <f t="shared" si="2"/>
+        <v>69.400000000000006</v>
+      </c>
+      <c r="J115" s="2">
         <f t="shared" si="3"/>
         <v>69.400000000000006</v>
       </c>
-      <c r="J115" s="2">
-        <f t="shared" si="4"/>
-        <v>69.400000000000006</v>
-      </c>
       <c r="L115" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J115&gt;=100-$P$6,J115&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -5999,15 +5803,15 @@
         <v>12.5</v>
       </c>
       <c r="I116" s="2">
+        <f t="shared" si="2"/>
+        <v>97.300000000000011</v>
+      </c>
+      <c r="J116" s="2">
         <f t="shared" si="3"/>
         <v>97.300000000000011</v>
       </c>
-      <c r="J116" s="2">
-        <f t="shared" si="4"/>
-        <v>97.300000000000011</v>
-      </c>
       <c r="L116" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J116&gt;=100-$P$6,J116&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6034,15 +5838,15 @@
         <v>6.7</v>
       </c>
       <c r="I117" s="2">
+        <f t="shared" si="2"/>
+        <v>74.5</v>
+      </c>
+      <c r="J117" s="2">
         <f t="shared" si="3"/>
         <v>74.5</v>
       </c>
-      <c r="J117" s="2">
-        <f t="shared" si="4"/>
-        <v>74.5</v>
-      </c>
       <c r="L117" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J117&gt;=100-$P$6,J117&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6069,15 +5873,15 @@
         <v>0.7</v>
       </c>
       <c r="I118" s="2">
+        <f t="shared" si="2"/>
+        <v>138.19999999999999</v>
+      </c>
+      <c r="J118" s="2">
         <f t="shared" si="3"/>
         <v>138.19999999999999</v>
       </c>
-      <c r="J118" s="2">
-        <f t="shared" si="4"/>
-        <v>138.19999999999999</v>
-      </c>
       <c r="L118" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J118&gt;=100-$P$6,J118&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6104,15 +5908,15 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="I119" s="2">
+        <f t="shared" si="2"/>
+        <v>84.5</v>
+      </c>
+      <c r="J119" s="2">
         <f t="shared" si="3"/>
         <v>84.5</v>
       </c>
-      <c r="J119" s="2">
-        <f t="shared" si="4"/>
-        <v>84.5</v>
-      </c>
       <c r="L119" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J119&gt;=100-$P$6,J119&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6133,15 +5937,15 @@
         <v>6.9</v>
       </c>
       <c r="I120" s="2">
+        <f t="shared" si="2"/>
+        <v>36.1</v>
+      </c>
+      <c r="J120" s="2">
         <f t="shared" si="3"/>
         <v>36.1</v>
       </c>
-      <c r="J120" s="2">
-        <f t="shared" si="4"/>
-        <v>36.1</v>
-      </c>
       <c r="L120" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J120&gt;=100-$P$6,J120&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6159,15 +5963,15 @@
         <v>38.4</v>
       </c>
       <c r="I121" s="2">
+        <f t="shared" si="2"/>
+        <v>83.3</v>
+      </c>
+      <c r="J121" s="2">
         <f t="shared" si="3"/>
         <v>83.3</v>
       </c>
-      <c r="J121" s="2">
-        <f t="shared" si="4"/>
-        <v>83.3</v>
-      </c>
       <c r="L121" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J121&gt;=100-$P$6,J121&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6188,15 +5992,15 @@
         <v>13.1</v>
       </c>
       <c r="I122" s="2">
+        <f t="shared" si="2"/>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J122" s="2">
         <f t="shared" si="3"/>
         <v>16.600000000000001</v>
       </c>
-      <c r="J122" s="2">
-        <f t="shared" si="4"/>
-        <v>16.600000000000001</v>
-      </c>
       <c r="L122" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J122&gt;=100-$P$6,J122&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6214,15 +6018,15 @@
         <v>21.5</v>
       </c>
       <c r="I123" s="2">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="J123" s="2">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="J123" s="2">
-        <f t="shared" si="4"/>
-        <v>68</v>
-      </c>
       <c r="L123" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J123&gt;=100-$P$6,J123&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6249,15 +6053,15 @@
         <v>6.4</v>
       </c>
       <c r="I124" s="2">
+        <f t="shared" si="2"/>
+        <v>67.400000000000006</v>
+      </c>
+      <c r="J124" s="2">
         <f t="shared" si="3"/>
         <v>67.400000000000006</v>
       </c>
-      <c r="J124" s="2">
-        <f t="shared" si="4"/>
-        <v>67.400000000000006</v>
-      </c>
       <c r="L124" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J124&gt;=100-$P$6,J124&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6281,15 +6085,15 @@
         <v>5.7</v>
       </c>
       <c r="I125" s="2">
+        <f t="shared" si="2"/>
+        <v>93.2</v>
+      </c>
+      <c r="J125" s="2">
         <f t="shared" si="3"/>
         <v>93.2</v>
       </c>
-      <c r="J125" s="2">
-        <f t="shared" si="4"/>
-        <v>93.2</v>
-      </c>
       <c r="L125" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J125&gt;=100-$P$6,J125&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6310,15 +6114,15 @@
         <v>71.400000000000006</v>
       </c>
       <c r="I126" s="2">
+        <f t="shared" si="2"/>
+        <v>120.1</v>
+      </c>
+      <c r="J126" s="2">
         <f t="shared" si="3"/>
         <v>120.1</v>
       </c>
-      <c r="J126" s="2">
-        <f t="shared" si="4"/>
-        <v>120.1</v>
-      </c>
       <c r="L126" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J126&gt;=100-$P$6,J126&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6345,15 +6149,15 @@
         <v>1.4</v>
       </c>
       <c r="I127" s="2">
+        <f t="shared" si="2"/>
+        <v>120.69999999999999</v>
+      </c>
+      <c r="J127" s="2">
         <f t="shared" si="3"/>
         <v>120.69999999999999</v>
       </c>
-      <c r="J127" s="2">
-        <f t="shared" si="4"/>
-        <v>120.69999999999999</v>
-      </c>
       <c r="L127" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J127&gt;=100-$P$6,J127&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6377,15 +6181,15 @@
         <v>6.3</v>
       </c>
       <c r="I128" s="2">
+        <f>SUM(C128:G128)</f>
+        <v>65.400000000000006</v>
+      </c>
+      <c r="J128" s="2">
         <f t="shared" si="3"/>
         <v>65.400000000000006</v>
       </c>
-      <c r="J128" s="2">
-        <f t="shared" si="4"/>
-        <v>65.400000000000006</v>
-      </c>
       <c r="L128" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J128&gt;=100-$P$6,J128&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6412,15 +6216,15 @@
         <v>4.2</v>
       </c>
       <c r="I129" s="2">
+        <f t="shared" si="2"/>
+        <v>84.100000000000009</v>
+      </c>
+      <c r="J129" s="2">
         <f t="shared" si="3"/>
         <v>84.100000000000009</v>
       </c>
-      <c r="J129" s="2">
-        <f t="shared" si="4"/>
-        <v>84.100000000000009</v>
-      </c>
       <c r="L129" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J129&gt;=100-$P$6,J129&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6447,15 +6251,15 @@
         <v>4.2</v>
       </c>
       <c r="I130" s="2">
+        <f t="shared" si="2"/>
+        <v>138.6</v>
+      </c>
+      <c r="J130" s="2">
         <f t="shared" si="3"/>
         <v>138.6</v>
       </c>
-      <c r="J130" s="2">
-        <f t="shared" si="4"/>
-        <v>138.6</v>
-      </c>
       <c r="L130" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(J130&gt;=100-$P$6,J130&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6479,15 +6283,15 @@
         <v>0</v>
       </c>
       <c r="I131" s="2">
-        <f t="shared" ref="I131:I149" si="6">SUM(C131:G131)</f>
+        <f t="shared" ref="I131:I149" si="4">SUM(C131:G131)</f>
         <v>54.9</v>
       </c>
       <c r="J131" s="2">
-        <f t="shared" ref="J131:J149" si="7">I131</f>
+        <f t="shared" ref="J131:J149" si="5">I131</f>
         <v>54.9</v>
       </c>
       <c r="L131" s="6" t="str">
-        <f t="shared" ref="L131:L149" si="8">IF(AND(J131&gt;99,9,J131&lt;100.1),"Pass","Fail")</f>
+        <f>IF(AND(J131&gt;=100-$P$6,J131&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6514,15 +6318,15 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="I132" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>134.4</v>
       </c>
       <c r="J132" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>134.4</v>
       </c>
       <c r="L132" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(AND(J132&gt;=100-$P$6,J132&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6537,15 +6341,15 @@
         <v>17.3</v>
       </c>
       <c r="I133" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>17.3</v>
       </c>
       <c r="J133" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>17.3</v>
       </c>
       <c r="L133" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(AND(J133&gt;=100-$P$6,J133&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6566,15 +6370,15 @@
         <v>11.1</v>
       </c>
       <c r="I134" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>149.4</v>
       </c>
       <c r="J134" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>149.4</v>
       </c>
       <c r="L134" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(AND(J134&gt;=100-$P$6,J134&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6601,15 +6405,15 @@
         <v>5.6</v>
       </c>
       <c r="I135" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>91.199999999999989</v>
       </c>
       <c r="J135" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>91.199999999999989</v>
       </c>
       <c r="L135" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(AND(J135&gt;=100-$P$6,J135&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6636,15 +6440,15 @@
         <v>8.1</v>
       </c>
       <c r="I136" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>91.4</v>
       </c>
       <c r="J136" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>91.4</v>
       </c>
       <c r="L136" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(AND(J136&gt;=100-$P$6,J136&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6671,15 +6475,15 @@
         <v>0.7</v>
       </c>
       <c r="I137" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>72.399999999999991</v>
       </c>
       <c r="J137" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>72.399999999999991</v>
       </c>
       <c r="L137" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(AND(J137&gt;=100-$P$6,J137&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6703,15 +6507,15 @@
         <v>38</v>
       </c>
       <c r="I138" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>78.2</v>
       </c>
       <c r="J138" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>78.2</v>
       </c>
       <c r="L138" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(AND(J138&gt;=100-$P$6,J138&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6726,15 +6530,15 @@
         <v>21.3</v>
       </c>
       <c r="I139" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>21.3</v>
       </c>
       <c r="J139" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>21.3</v>
       </c>
       <c r="L139" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(AND(J139&gt;=100-$P$6,J139&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6761,15 +6565,15 @@
         <v>0</v>
       </c>
       <c r="I140" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>112.7</v>
       </c>
       <c r="J140" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>112.7</v>
       </c>
       <c r="L140" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(AND(J140&gt;=100-$P$6,J140&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6796,15 +6600,15 @@
         <v>8.4</v>
       </c>
       <c r="I141" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>120.6</v>
       </c>
       <c r="J141" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>120.6</v>
       </c>
       <c r="L141" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(AND(J141&gt;=100-$P$6,J141&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6831,15 +6635,15 @@
         <v>14.2</v>
       </c>
       <c r="I142" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>91.7</v>
       </c>
       <c r="J142" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>91.7</v>
       </c>
       <c r="L142" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(AND(J142&gt;=100-$P$6,J142&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6866,15 +6670,15 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="I143" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>92.3</v>
       </c>
       <c r="J143" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>92.3</v>
       </c>
       <c r="L143" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(AND(J143&gt;=100-$P$6,J143&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6901,15 +6705,15 @@
         <v>0.8</v>
       </c>
       <c r="I144" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>125.3</v>
       </c>
       <c r="J144" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>125.3</v>
       </c>
       <c r="L144" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(AND(J144&gt;=100-$P$6,J144&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6936,15 +6740,15 @@
         <v>4.2</v>
       </c>
       <c r="I145" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>66.7</v>
       </c>
       <c r="J145" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66.7</v>
       </c>
       <c r="L145" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(AND(J145&gt;=100-$P$6,J145&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6968,15 +6772,15 @@
         <v>0</v>
       </c>
       <c r="I146" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>69.300000000000011</v>
       </c>
       <c r="J146" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>69.300000000000011</v>
       </c>
       <c r="L146" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(AND(J146&gt;=100-$P$6,J146&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -6991,15 +6795,15 @@
         <v>52.2</v>
       </c>
       <c r="I147" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>52.2</v>
       </c>
       <c r="J147" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>52.2</v>
       </c>
       <c r="L147" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(AND(J147&gt;=100-$P$6,J147&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -7020,15 +6824,15 @@
         <v>36.4</v>
       </c>
       <c r="I148" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>96.4</v>
       </c>
       <c r="J148" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>96.4</v>
       </c>
       <c r="L148" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(AND(J148&gt;=100-$P$6,J148&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -7052,15 +6856,15 @@
         <v>37.200000000000003</v>
       </c>
       <c r="I149" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>73.3</v>
       </c>
       <c r="J149" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>73.3</v>
       </c>
       <c r="L149" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(AND(J149&gt;=100-$P$6,J149&lt;=100+$P$6),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -7086,14 +6890,14 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J149">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
-      <formula>99.9</formula>
+      <formula>99.5</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
-      <formula>100.1</formula>
+      <formula>100.5</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="5" operator="between">
-      <formula>99.9</formula>
-      <formula>100.1</formula>
+      <formula>99.5</formula>
+      <formula>100.5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_summary/deaths_by_vehicle_type.xlsx
+++ b/data_summary/deaths_by_vehicle_type.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakeb\Downloads\Data Analytics\Course Work\Project_01\data_summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{611ECD7F-D945-4B9C-81AE-2D4380D776CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A452291-A396-4C30-AA3E-F0EE4A8F571E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33420" yWindow="-4395" windowWidth="30330" windowHeight="19815"/>
+    <workbookView xWindow="33420" yWindow="-4395" windowWidth="30330" windowHeight="19815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="deaths_by_vehicle_type_new" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -505,7 +505,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1120,7 +1120,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -1174,55 +1174,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1540,7 +1491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1621,7 +1572,7 @@
         <v>100</v>
       </c>
       <c r="J2" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H2,100-$M$9&lt;H2),"Pass","Fail")</f>
+        <f t="shared" ref="J2:J33" si="0">IF(AND(100+$M$9&gt;H2,100-$M$9&lt;H2),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -1636,15 +1587,15 @@
         <v>50</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G66" si="0">SUM(B3:F3)</f>
+        <f t="shared" ref="G3:G66" si="1">SUM(B3:F3)</f>
         <v>100</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H66" si="1">G3</f>
+        <f t="shared" ref="H3:H66" si="2">G3</f>
         <v>100</v>
       </c>
       <c r="J3" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H3,100-$M$9&lt;H3),"Pass","Fail")</f>
+        <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
@@ -1662,15 +1613,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="J4" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H4,100-$M$9&lt;H4),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -1694,15 +1645,15 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="J5" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H5,100-$M$9&lt;H5),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
       <c r="L5" s="4"/>
@@ -1733,15 +1684,15 @@
         <v>20</v>
       </c>
       <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="J6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>100.00000000000001</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="1"/>
-        <v>100.00000000000001</v>
-      </c>
-      <c r="J6" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H6,100-$M$9&lt;H6),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
       <c r="L6" s="10" t="s">
@@ -1776,15 +1727,15 @@
         <v>3.7</v>
       </c>
       <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="J7" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H7,100-$M$9&lt;H7),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
       <c r="L7" s="7" t="s">
@@ -1819,15 +1770,15 @@
         <v>3.5</v>
       </c>
       <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>99.9</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>99.9</v>
+      </c>
+      <c r="J8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>99.9</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="1"/>
-        <v>99.9</v>
-      </c>
-      <c r="J8" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H8,100-$M$9&lt;H8),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -1851,15 +1802,15 @@
         <v>6.3</v>
       </c>
       <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>100.09999999999998</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>100.09999999999998</v>
+      </c>
+      <c r="J9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>100.09999999999998</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="1"/>
-        <v>100.09999999999998</v>
-      </c>
-      <c r="J9" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H9,100-$M$9&lt;H9),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
       <c r="L9" t="s">
@@ -1889,15 +1840,15 @@
         <v>4.3</v>
       </c>
       <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>99.899999999999991</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>99.899999999999991</v>
+      </c>
+      <c r="J10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>99.899999999999991</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="1"/>
-        <v>99.899999999999991</v>
-      </c>
-      <c r="J10" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H10,100-$M$9&lt;H10),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -1918,15 +1869,15 @@
         <v>21.2</v>
       </c>
       <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="J11" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H11,100-$M$9&lt;H11),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -1947,15 +1898,15 @@
         <v>31.4</v>
       </c>
       <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>105.6</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>105.6</v>
+      </c>
+      <c r="J12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>105.6</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="1"/>
-        <v>105.6</v>
-      </c>
-      <c r="J12" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H12,100-$M$9&lt;H12),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -1979,15 +1930,15 @@
         <v>11.1</v>
       </c>
       <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>99.899999999999991</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>99.899999999999991</v>
+      </c>
+      <c r="J13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>99.899999999999991</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="1"/>
-        <v>99.899999999999991</v>
-      </c>
-      <c r="J13" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H13,100-$M$9&lt;H13),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2008,15 +1959,15 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="J14" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H14,100-$M$9&lt;H14),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2040,15 +1991,15 @@
         <v>5</v>
       </c>
       <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>99.8</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="2"/>
+        <v>99.8</v>
+      </c>
+      <c r="J15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>99.8</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="1"/>
-        <v>99.8</v>
-      </c>
-      <c r="J15" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H15,100-$M$9&lt;H15),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2072,15 +2023,15 @@
         <v>24.8</v>
       </c>
       <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>100.1</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="2"/>
+        <v>100.1</v>
+      </c>
+      <c r="J16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>100.1</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="1"/>
-        <v>100.1</v>
-      </c>
-      <c r="J16" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H16,100-$M$9&lt;H16),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2104,15 +2055,15 @@
         <v>9.1</v>
       </c>
       <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="2"/>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="J17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>99.999999999999986</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="1"/>
-        <v>99.999999999999986</v>
-      </c>
-      <c r="J17" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H17,100-$M$9&lt;H17),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2133,15 +2084,15 @@
         <v>17.100000000000001</v>
       </c>
       <c r="G18" s="1">
+        <f t="shared" si="1"/>
+        <v>100.1</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="2"/>
+        <v>100.1</v>
+      </c>
+      <c r="J18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>100.1</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="1"/>
-        <v>100.1</v>
-      </c>
-      <c r="J18" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H18,100-$M$9&lt;H18),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2165,15 +2116,15 @@
         <v>10.199999999999999</v>
       </c>
       <c r="G19" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="J19" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H19,100-$M$9&lt;H19),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2197,15 +2148,15 @@
         <v>24</v>
       </c>
       <c r="G20" s="1">
+        <f t="shared" si="1"/>
+        <v>100.1</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="2"/>
+        <v>100.1</v>
+      </c>
+      <c r="J20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>100.1</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="1"/>
-        <v>100.1</v>
-      </c>
-      <c r="J20" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H20,100-$M$9&lt;H20),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2229,15 +2180,15 @@
         <v>6.8</v>
       </c>
       <c r="G21" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="J21" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H21,100-$M$9&lt;H21),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2261,15 +2212,15 @@
         <v>8.4</v>
       </c>
       <c r="G22" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="J22" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H22,100-$M$9&lt;H22),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2293,15 +2244,15 @@
         <v>7.2</v>
       </c>
       <c r="G23" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="J23" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H23,100-$M$9&lt;H23),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2325,15 +2276,15 @@
         <v>7.7</v>
       </c>
       <c r="G24" s="1">
+        <f t="shared" si="1"/>
+        <v>100.10000000000001</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="2"/>
+        <v>100.10000000000001</v>
+      </c>
+      <c r="J24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>100.10000000000001</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" si="1"/>
-        <v>100.10000000000001</v>
-      </c>
-      <c r="J24" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H24,100-$M$9&lt;H24),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2357,15 +2308,15 @@
         <v>7.8</v>
       </c>
       <c r="G25" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="J25" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H25,100-$M$9&lt;H25),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2389,15 +2340,15 @@
         <v>0</v>
       </c>
       <c r="G26" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="J26" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H26,100-$M$9&lt;H26),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2421,15 +2372,15 @@
         <v>0</v>
       </c>
       <c r="G27" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="J27" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H27,100-$M$9&lt;H27),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2453,15 +2404,15 @@
         <v>0.9</v>
       </c>
       <c r="G28" s="1">
+        <f t="shared" si="1"/>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="2"/>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="J28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>100.00000000000001</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" si="1"/>
-        <v>100.00000000000001</v>
-      </c>
-      <c r="J28" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H28,100-$M$9&lt;H28),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2485,15 +2436,15 @@
         <v>13.4</v>
       </c>
       <c r="G29" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="J29" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H29,100-$M$9&lt;H29),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2517,15 +2468,15 @@
         <v>5.2</v>
       </c>
       <c r="G30" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H30" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="J30" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H30,100-$M$9&lt;H30),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2549,15 +2500,15 @@
         <v>31.2</v>
       </c>
       <c r="G31" s="1">
+        <f t="shared" si="1"/>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="2"/>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="J31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>100.00000000000001</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" si="1"/>
-        <v>100.00000000000001</v>
-      </c>
-      <c r="J31" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H31,100-$M$9&lt;H31),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2581,15 +2532,15 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="G32" s="1">
+        <f t="shared" si="1"/>
+        <v>99.899999999999991</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="2"/>
+        <v>99.899999999999991</v>
+      </c>
+      <c r="J32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>99.899999999999991</v>
-      </c>
-      <c r="H32" s="1">
-        <f t="shared" si="1"/>
-        <v>99.899999999999991</v>
-      </c>
-      <c r="J32" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H32,100-$M$9&lt;H32),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2613,15 +2564,15 @@
         <v>6.1</v>
       </c>
       <c r="G33" s="1">
+        <f t="shared" si="1"/>
+        <v>100.1</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="2"/>
+        <v>100.1</v>
+      </c>
+      <c r="J33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>100.1</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" si="1"/>
-        <v>100.1</v>
-      </c>
-      <c r="J33" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H33,100-$M$9&lt;H33),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2645,15 +2596,15 @@
         <v>0.3</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99.999999999999986</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.999999999999986</v>
       </c>
       <c r="J34" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H34,100-$M$9&lt;H34),"Pass","Fail")</f>
+        <f t="shared" ref="J34:J65" si="3">IF(AND(100+$M$9&gt;H34,100-$M$9&lt;H34),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2677,15 +2628,15 @@
         <v>3.8</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100.00000000000001</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100.00000000000001</v>
       </c>
       <c r="J35" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H35,100-$M$9&lt;H35),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2709,15 +2660,15 @@
         <v>20</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J36" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H36,100-$M$9&lt;H36),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2741,15 +2692,15 @@
         <v>4</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J37" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H37,100-$M$9&lt;H37),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2773,15 +2724,15 @@
         <v>54</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99.9</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.9</v>
       </c>
       <c r="J38" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H38,100-$M$9&lt;H38),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2805,15 +2756,15 @@
         <v>21.2</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99.9</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.9</v>
       </c>
       <c r="J39" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H39,100-$M$9&lt;H39),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2837,15 +2788,15 @@
         <v>3.3</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99.999999999999986</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.999999999999986</v>
       </c>
       <c r="J40" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H40,100-$M$9&lt;H40),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2869,15 +2820,15 @@
         <v>27.7</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100.00000000000001</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100.00000000000001</v>
       </c>
       <c r="J41" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H41,100-$M$9&lt;H41),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2901,15 +2852,15 @@
         <v>8.5</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J42" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H42,100-$M$9&lt;H42),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2933,15 +2884,15 @@
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J43" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H43,100-$M$9&lt;H43),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2962,15 +2913,15 @@
         <v>33.5</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99.9</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.9</v>
       </c>
       <c r="J44" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H44,100-$M$9&lt;H44),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2988,15 +2939,15 @@
         <v>63.3</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J45" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H45,100-$M$9&lt;H45),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3014,15 +2965,15 @@
         <v>0</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J46" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H46,100-$M$9&lt;H46),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3046,15 +2997,15 @@
         <v>6.3</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99.9</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.9</v>
       </c>
       <c r="J47" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H47,100-$M$9&lt;H47),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3078,15 +3029,15 @@
         <v>3.8</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100.10000000000001</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100.10000000000001</v>
       </c>
       <c r="J48" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H48,100-$M$9&lt;H48),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3110,15 +3061,15 @@
         <v>27.4</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J49" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H49,100-$M$9&lt;H49),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3142,15 +3093,15 @@
         <v>5.9</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100.1</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100.1</v>
       </c>
       <c r="J50" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H50,100-$M$9&lt;H50),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3174,15 +3125,15 @@
         <v>20.7</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J51" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H51,100-$M$9&lt;H51),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3206,15 +3157,15 @@
         <v>7</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J52" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H52,100-$M$9&lt;H52),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3238,15 +3189,15 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J53" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H53,100-$M$9&lt;H53),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3270,15 +3221,15 @@
         <v>11.7</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J54" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H54,100-$M$9&lt;H54),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3302,15 +3253,15 @@
         <v>25.1</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J55" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H55,100-$M$9&lt;H55),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3334,15 +3285,15 @@
         <v>8.1</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99.899999999999991</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.899999999999991</v>
       </c>
       <c r="J56" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H56,100-$M$9&lt;H56),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3366,15 +3317,15 @@
         <v>5.6</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99.999999999999986</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.999999999999986</v>
       </c>
       <c r="J57" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H57,100-$M$9&lt;H57),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3398,15 +3349,15 @@
         <v>30.4</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J58" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H58,100-$M$9&lt;H58),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3430,15 +3381,15 @@
         <v>2.7</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99.9</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.9</v>
       </c>
       <c r="J59" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H59,100-$M$9&lt;H59),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3462,15 +3413,15 @@
         <v>5</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J60" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H60,100-$M$9&lt;H60),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3494,15 +3445,15 @@
         <v>2.1</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99.9</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.9</v>
       </c>
       <c r="J61" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H61,100-$M$9&lt;H61),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3526,15 +3477,15 @@
         <v>10.1</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J62" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H62,100-$M$9&lt;H62),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3558,15 +3509,15 @@
         <v>6.7</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100.00000000000001</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100.00000000000001</v>
       </c>
       <c r="J63" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H63,100-$M$9&lt;H63),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3590,15 +3541,15 @@
         <v>7.7</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100.10000000000001</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100.10000000000001</v>
       </c>
       <c r="J64" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H64,100-$M$9&lt;H64),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3622,15 +3573,15 @@
         <v>1</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100.69999999999999</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100.69999999999999</v>
       </c>
       <c r="J65" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H65,100-$M$9&lt;H65),"Pass","Fail")</f>
+        <f t="shared" si="3"/>
         <v>Fail</v>
       </c>
     </row>
@@ -3654,15 +3605,15 @@
         <v>0</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J66" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H66,100-$M$9&lt;H66),"Pass","Fail")</f>
+        <f t="shared" ref="J66:J97" si="4">IF(AND(100+$M$9&gt;H66,100-$M$9&lt;H66),"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -3686,15 +3637,15 @@
         <v>3.3</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" ref="G67:G130" si="2">SUM(B67:F67)</f>
+        <f t="shared" ref="G67:G130" si="5">SUM(B67:F67)</f>
         <v>99.999999999999986</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" ref="H67:H130" si="3">G67</f>
+        <f t="shared" ref="H67:H130" si="6">G67</f>
         <v>99.999999999999986</v>
       </c>
       <c r="J67" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H67,100-$M$9&lt;H67),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3718,15 +3669,15 @@
         <v>0</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J68" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H68,100-$M$9&lt;H68),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3750,15 +3701,15 @@
         <v>0</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J69" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H69,100-$M$9&lt;H69),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3782,15 +3733,15 @@
         <v>30</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>99.9</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>99.9</v>
       </c>
       <c r="J70" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H70,100-$M$9&lt;H70),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3814,15 +3765,15 @@
         <v>3.8</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>99.899999999999991</v>
       </c>
       <c r="H71" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>99.899999999999991</v>
       </c>
       <c r="J71" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H71,100-$M$9&lt;H71),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3843,15 +3794,15 @@
         <v>0</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100.1</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100.1</v>
       </c>
       <c r="J72" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H72,100-$M$9&lt;H72),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3875,15 +3826,15 @@
         <v>0</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J73" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H73,100-$M$9&lt;H73),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3907,15 +3858,15 @@
         <v>1</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H74" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J74" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H74,100-$M$9&lt;H74),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3939,15 +3890,15 @@
         <v>0</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J75" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H75,100-$M$9&lt;H75),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3965,15 +3916,15 @@
         <v>0</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H76" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J76" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H76,100-$M$9&lt;H76),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3997,15 +3948,15 @@
         <v>0.1</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H77" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J77" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H77,100-$M$9&lt;H77),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
@@ -4029,15 +3980,15 @@
         <v>0</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J78" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H78,100-$M$9&lt;H78),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
@@ -4061,15 +4012,15 @@
         <v>15.9</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J79" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H79,100-$M$9&lt;H79),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
@@ -4093,15 +4044,15 @@
         <v>9.1</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>99.999999999999986</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>99.999999999999986</v>
       </c>
       <c r="J80" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H80,100-$M$9&lt;H80),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
@@ -4116,15 +4067,15 @@
         <v>66.7</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J81" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H81,100-$M$9&lt;H81),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
@@ -4152,11 +4103,11 @@
         <v>100</v>
       </c>
       <c r="H82" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J82" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H82,100-$M$9&lt;H82),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
@@ -4180,15 +4131,15 @@
         <v>42.4</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H83" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J83" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H83,100-$M$9&lt;H83),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
@@ -4212,15 +4163,15 @@
         <v>0</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H84" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J84" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H84,100-$M$9&lt;H84),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
@@ -4244,15 +4195,15 @@
         <v>12.2</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H85" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J85" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H85,100-$M$9&lt;H85),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
@@ -4276,15 +4227,15 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>99.899999999999991</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>99.899999999999991</v>
       </c>
       <c r="J86" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H86,100-$M$9&lt;H86),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
@@ -4308,15 +4259,15 @@
         <v>7.9</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J87" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H87,100-$M$9&lt;H87),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
@@ -4340,15 +4291,15 @@
         <v>7.1</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>99.999999999999986</v>
       </c>
       <c r="H88" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>99.999999999999986</v>
       </c>
       <c r="J88" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H88,100-$M$9&lt;H88),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
@@ -4372,15 +4323,15 @@
         <v>1.6</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H89" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J89" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H89,100-$M$9&lt;H89),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
@@ -4404,15 +4355,15 @@
         <v>6.4</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>99.9</v>
       </c>
       <c r="H90" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>99.9</v>
       </c>
       <c r="J90" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H90,100-$M$9&lt;H90),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
@@ -4436,15 +4387,15 @@
         <v>12.5</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H91" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J91" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H91,100-$M$9&lt;H91),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
@@ -4456,15 +4407,15 @@
         <v>49.6</v>
       </c>
       <c r="G92" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>49.6</v>
       </c>
       <c r="H92" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>49.6</v>
       </c>
       <c r="J92" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H92,100-$M$9&lt;H92),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Fail</v>
       </c>
     </row>
@@ -4488,15 +4439,15 @@
         <v>12.6</v>
       </c>
       <c r="G93" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>115.10000000000001</v>
       </c>
       <c r="H93" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>115.10000000000001</v>
       </c>
       <c r="J93" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H93,100-$M$9&lt;H93),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Fail</v>
       </c>
     </row>
@@ -4520,15 +4471,15 @@
         <v>10.7</v>
       </c>
       <c r="G94" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>74.5</v>
       </c>
       <c r="H94" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>74.5</v>
       </c>
       <c r="J94" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H94,100-$M$9&lt;H94),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Fail</v>
       </c>
     </row>
@@ -4549,15 +4500,15 @@
         <v>8.1</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
       <c r="H95" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>35.200000000000003</v>
       </c>
       <c r="J95" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H95,100-$M$9&lt;H95),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Fail</v>
       </c>
     </row>
@@ -4569,15 +4520,15 @@
         <v>32.299999999999997</v>
       </c>
       <c r="G96" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>32.299999999999997</v>
       </c>
       <c r="H96" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>32.299999999999997</v>
       </c>
       <c r="J96" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H96,100-$M$9&lt;H96),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Fail</v>
       </c>
     </row>
@@ -4589,15 +4540,15 @@
         <v>100</v>
       </c>
       <c r="G97" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="H97" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J97" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H97,100-$M$9&lt;H97),"Pass","Fail")</f>
+        <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
@@ -4621,15 +4572,15 @@
         <v>17.5</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>120.1</v>
       </c>
       <c r="H98" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>120.1</v>
       </c>
       <c r="J98" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H98,100-$M$9&lt;H98),"Pass","Fail")</f>
+        <f t="shared" ref="J98:J129" si="7">IF(AND(100+$M$9&gt;H98,100-$M$9&lt;H98),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -4647,15 +4598,15 @@
         <v>0</v>
       </c>
       <c r="G99" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="H99" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="J99" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H99,100-$M$9&lt;H99),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -4679,15 +4630,15 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>86.100000000000009</v>
       </c>
       <c r="H100" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>86.100000000000009</v>
       </c>
       <c r="J100" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H100,100-$M$9&lt;H100),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -4711,15 +4662,15 @@
         <v>88.6</v>
       </c>
       <c r="G101" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>97.8</v>
       </c>
       <c r="H101" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>97.8</v>
       </c>
       <c r="J101" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H101,100-$M$9&lt;H101),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -4743,15 +4694,15 @@
         <v>93.9</v>
       </c>
       <c r="G102" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>146.5</v>
       </c>
       <c r="H102" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>146.5</v>
       </c>
       <c r="J102" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H102,100-$M$9&lt;H102),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -4775,15 +4726,15 @@
         <v>4.3</v>
       </c>
       <c r="G103" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100.8</v>
       </c>
       <c r="H103" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100.8</v>
       </c>
       <c r="J103" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H103,100-$M$9&lt;H103),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -4807,15 +4758,15 @@
         <v>6.4</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100.7</v>
       </c>
       <c r="H104" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100.7</v>
       </c>
       <c r="J104" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H104,100-$M$9&lt;H104),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -4836,15 +4787,15 @@
         <v>14.6</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>51.6</v>
       </c>
       <c r="H105" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>51.6</v>
       </c>
       <c r="J105" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H105,100-$M$9&lt;H105),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -4868,15 +4819,15 @@
         <v>33.700000000000003</v>
       </c>
       <c r="G106" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>117.60000000000001</v>
       </c>
       <c r="H106" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>117.60000000000001</v>
       </c>
       <c r="J106" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H106,100-$M$9&lt;H106),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -4900,15 +4851,15 @@
         <v>58.1</v>
       </c>
       <c r="G107" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>128.4</v>
       </c>
       <c r="H107" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>128.4</v>
       </c>
       <c r="J107" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H107,100-$M$9&lt;H107),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -4929,15 +4880,15 @@
         <v>4.7</v>
       </c>
       <c r="G108" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>53.400000000000006</v>
       </c>
       <c r="H108" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>53.400000000000006</v>
       </c>
       <c r="J108" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H108,100-$M$9&lt;H108),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -4961,15 +4912,15 @@
         <v>3.3</v>
       </c>
       <c r="G109" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>111.5</v>
       </c>
       <c r="H109" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>111.5</v>
       </c>
       <c r="J109" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H109,100-$M$9&lt;H109),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -4990,15 +4941,15 @@
         <v>5.3</v>
       </c>
       <c r="G110" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>42.4</v>
       </c>
       <c r="H110" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>42.4</v>
       </c>
       <c r="J110" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H110,100-$M$9&lt;H110),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5010,15 +4961,15 @@
         <v>46.7</v>
       </c>
       <c r="G111" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>46.7</v>
       </c>
       <c r="H111" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>46.7</v>
       </c>
       <c r="J111" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H111,100-$M$9&lt;H111),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5042,15 +4993,15 @@
         <v>6.7</v>
       </c>
       <c r="G112" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>94.5</v>
       </c>
       <c r="H112" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>94.5</v>
       </c>
       <c r="J112" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H112,100-$M$9&lt;H112),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5062,15 +5013,15 @@
         <v>47.1</v>
       </c>
       <c r="G113" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>47.1</v>
       </c>
       <c r="H113" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>47.1</v>
       </c>
       <c r="J113" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H113,100-$M$9&lt;H113),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5088,15 +5039,15 @@
         <v>5.9</v>
       </c>
       <c r="G114" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>11.8</v>
       </c>
       <c r="H114" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11.8</v>
       </c>
       <c r="J114" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H114,100-$M$9&lt;H114),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5111,15 +5062,15 @@
         <v>23.1</v>
       </c>
       <c r="G115" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>69.400000000000006</v>
       </c>
       <c r="H115" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>69.400000000000006</v>
       </c>
       <c r="J115" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H115,100-$M$9&lt;H115),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5143,15 +5094,15 @@
         <v>12.5</v>
       </c>
       <c r="G116" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>97.300000000000011</v>
       </c>
       <c r="H116" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>97.300000000000011</v>
       </c>
       <c r="J116" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H116,100-$M$9&lt;H116),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5175,15 +5126,15 @@
         <v>6.7</v>
       </c>
       <c r="G117" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>74.5</v>
       </c>
       <c r="H117" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>74.5</v>
       </c>
       <c r="J117" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H117,100-$M$9&lt;H117),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5207,15 +5158,15 @@
         <v>0.7</v>
       </c>
       <c r="G118" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>138.19999999999999</v>
       </c>
       <c r="H118" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>138.19999999999999</v>
       </c>
       <c r="J118" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H118,100-$M$9&lt;H118),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5239,15 +5190,15 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="G119" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>84.5</v>
       </c>
       <c r="H119" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>84.5</v>
       </c>
       <c r="J119" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H119,100-$M$9&lt;H119),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5265,15 +5216,15 @@
         <v>6.9</v>
       </c>
       <c r="G120" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36.1</v>
       </c>
       <c r="H120" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>36.1</v>
       </c>
       <c r="J120" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H120,100-$M$9&lt;H120),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5288,15 +5239,15 @@
         <v>38.4</v>
       </c>
       <c r="G121" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>83.3</v>
       </c>
       <c r="H121" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>83.3</v>
       </c>
       <c r="J121" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H121,100-$M$9&lt;H121),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5314,15 +5265,15 @@
         <v>13.1</v>
       </c>
       <c r="G122" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16.600000000000001</v>
       </c>
       <c r="H122" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16.600000000000001</v>
       </c>
       <c r="J122" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H122,100-$M$9&lt;H122),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5337,15 +5288,15 @@
         <v>21.5</v>
       </c>
       <c r="G123" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="H123" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="J123" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H123,100-$M$9&lt;H123),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5369,15 +5320,15 @@
         <v>6.4</v>
       </c>
       <c r="G124" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>67.400000000000006</v>
       </c>
       <c r="H124" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>67.400000000000006</v>
       </c>
       <c r="J124" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H124,100-$M$9&lt;H124),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5398,15 +5349,15 @@
         <v>5.7</v>
       </c>
       <c r="G125" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>93.2</v>
       </c>
       <c r="H125" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>93.2</v>
       </c>
       <c r="J125" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H125,100-$M$9&lt;H125),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5424,15 +5375,15 @@
         <v>71.400000000000006</v>
       </c>
       <c r="G126" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>120.1</v>
       </c>
       <c r="H126" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>120.1</v>
       </c>
       <c r="J126" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H126,100-$M$9&lt;H126),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5456,15 +5407,15 @@
         <v>1.4</v>
       </c>
       <c r="G127" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>120.69999999999999</v>
       </c>
       <c r="H127" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>120.69999999999999</v>
       </c>
       <c r="J127" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H127,100-$M$9&lt;H127),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5485,15 +5436,15 @@
         <v>6.3</v>
       </c>
       <c r="G128" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>65.400000000000006</v>
       </c>
       <c r="H128" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>65.400000000000006</v>
       </c>
       <c r="J128" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H128,100-$M$9&lt;H128),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5517,15 +5468,15 @@
         <v>4.2</v>
       </c>
       <c r="G129" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>84.100000000000009</v>
       </c>
       <c r="H129" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>84.100000000000009</v>
       </c>
       <c r="J129" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H129,100-$M$9&lt;H129),"Pass","Fail")</f>
+        <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5549,15 +5500,15 @@
         <v>4.2</v>
       </c>
       <c r="G130" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>138.6</v>
       </c>
       <c r="H130" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>138.6</v>
       </c>
       <c r="J130" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H130,100-$M$9&lt;H130),"Pass","Fail")</f>
+        <f t="shared" ref="J130:J149" si="8">IF(AND(100+$M$9&gt;H130,100-$M$9&lt;H130),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
@@ -5578,15 +5529,15 @@
         <v>0</v>
       </c>
       <c r="G131" s="1">
-        <f t="shared" ref="G131:G149" si="4">SUM(B131:F131)</f>
+        <f t="shared" ref="G131:G149" si="9">SUM(B131:F131)</f>
         <v>54.9</v>
       </c>
       <c r="H131" s="1">
-        <f t="shared" ref="H131:H149" si="5">G131</f>
+        <f t="shared" ref="H131:H149" si="10">G131</f>
         <v>54.9</v>
       </c>
       <c r="J131" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H131,100-$M$9&lt;H131),"Pass","Fail")</f>
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5610,15 +5561,15 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G132" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>134.4</v>
       </c>
       <c r="H132" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>134.4</v>
       </c>
       <c r="J132" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H132,100-$M$9&lt;H132),"Pass","Fail")</f>
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5630,15 +5581,15 @@
         <v>17.3</v>
       </c>
       <c r="G133" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>17.3</v>
       </c>
       <c r="H133" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>17.3</v>
       </c>
       <c r="J133" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H133,100-$M$9&lt;H133),"Pass","Fail")</f>
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5656,15 +5607,15 @@
         <v>11.1</v>
       </c>
       <c r="G134" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>149.4</v>
       </c>
       <c r="H134" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>149.4</v>
       </c>
       <c r="J134" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H134,100-$M$9&lt;H134),"Pass","Fail")</f>
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5688,15 +5639,15 @@
         <v>5.6</v>
       </c>
       <c r="G135" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>91.199999999999989</v>
       </c>
       <c r="H135" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>91.199999999999989</v>
       </c>
       <c r="J135" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H135,100-$M$9&lt;H135),"Pass","Fail")</f>
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5720,15 +5671,15 @@
         <v>8.1</v>
       </c>
       <c r="G136" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>91.4</v>
       </c>
       <c r="H136" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>91.4</v>
       </c>
       <c r="J136" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H136,100-$M$9&lt;H136),"Pass","Fail")</f>
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5752,15 +5703,15 @@
         <v>0.7</v>
       </c>
       <c r="G137" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>72.399999999999991</v>
       </c>
       <c r="H137" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>72.399999999999991</v>
       </c>
       <c r="J137" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H137,100-$M$9&lt;H137),"Pass","Fail")</f>
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5781,15 +5732,15 @@
         <v>38</v>
       </c>
       <c r="G138" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>78.2</v>
       </c>
       <c r="H138" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>78.2</v>
       </c>
       <c r="J138" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H138,100-$M$9&lt;H138),"Pass","Fail")</f>
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5801,15 +5752,15 @@
         <v>21.3</v>
       </c>
       <c r="G139" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>21.3</v>
       </c>
       <c r="H139" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>21.3</v>
       </c>
       <c r="J139" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H139,100-$M$9&lt;H139),"Pass","Fail")</f>
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5833,15 +5784,15 @@
         <v>0</v>
       </c>
       <c r="G140" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>112.7</v>
       </c>
       <c r="H140" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>112.7</v>
       </c>
       <c r="J140" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H140,100-$M$9&lt;H140),"Pass","Fail")</f>
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5865,15 +5816,15 @@
         <v>8.4</v>
       </c>
       <c r="G141" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>120.6</v>
       </c>
       <c r="H141" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>120.6</v>
       </c>
       <c r="J141" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H141,100-$M$9&lt;H141),"Pass","Fail")</f>
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5897,15 +5848,15 @@
         <v>14.2</v>
       </c>
       <c r="G142" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>91.7</v>
       </c>
       <c r="H142" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>91.7</v>
       </c>
       <c r="J142" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H142,100-$M$9&lt;H142),"Pass","Fail")</f>
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5929,15 +5880,15 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="G143" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>92.3</v>
       </c>
       <c r="H143" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>92.3</v>
       </c>
       <c r="J143" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H143,100-$M$9&lt;H143),"Pass","Fail")</f>
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5961,15 +5912,15 @@
         <v>0.8</v>
       </c>
       <c r="G144" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>125.3</v>
       </c>
       <c r="H144" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>125.3</v>
       </c>
       <c r="J144" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H144,100-$M$9&lt;H144),"Pass","Fail")</f>
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -5993,15 +5944,15 @@
         <v>4.2</v>
       </c>
       <c r="G145" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>66.7</v>
       </c>
       <c r="H145" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>66.7</v>
       </c>
       <c r="J145" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H145,100-$M$9&lt;H145),"Pass","Fail")</f>
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -6022,15 +5973,15 @@
         <v>0</v>
       </c>
       <c r="G146" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>69.300000000000011</v>
       </c>
       <c r="H146" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>69.300000000000011</v>
       </c>
       <c r="J146" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H146,100-$M$9&lt;H146),"Pass","Fail")</f>
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -6042,15 +5993,15 @@
         <v>52.2</v>
       </c>
       <c r="G147" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>52.2</v>
       </c>
       <c r="H147" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>52.2</v>
       </c>
       <c r="J147" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H147,100-$M$9&lt;H147),"Pass","Fail")</f>
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -6068,15 +6019,15 @@
         <v>36.4</v>
       </c>
       <c r="G148" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>96.4</v>
       </c>
       <c r="H148" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>96.4</v>
       </c>
       <c r="J148" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H148,100-$M$9&lt;H148),"Pass","Fail")</f>
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
@@ -6097,15 +6048,15 @@
         <v>37.200000000000003</v>
       </c>
       <c r="G149" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>73.3</v>
       </c>
       <c r="H149" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>73.3</v>
       </c>
       <c r="J149" s="1" t="str">
-        <f>IF(AND(100+$M$9&gt;H149,100-$M$9&lt;H149),"Pass","Fail")</f>
+        <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>

--- a/data_summary/deaths_by_vehicle_type.xlsx
+++ b/data_summary/deaths_by_vehicle_type.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakeb\Downloads\Data Analytics\Course Work\Project_01\data_summary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakeb\python_demo\Project_1\data_summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A452291-A396-4C30-AA3E-F0EE4A8F571E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6B1CF4-6187-447E-A126-A3686D350D67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33420" yWindow="-4395" windowWidth="30330" windowHeight="19815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="deaths_by_vehicle_type_new" sheetId="1" r:id="rId1"/>
@@ -1492,10 +1492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N149"/>
+  <dimension ref="A1:P149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,15 +1506,17 @@
     <col min="4" max="4" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="1.7109375" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.7109375" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1533,18 +1535,20 @@
       <c r="F1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1"/>
+      <c r="H1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1"/>
+      <c r="J1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1563,20 +1567,20 @@
       <c r="F2" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <f>SUM(B2:F2)</f>
         <v>100</v>
       </c>
-      <c r="H2" s="1">
-        <f>G2</f>
-        <v>100</v>
-      </c>
-      <c r="J2" s="1" t="str">
-        <f t="shared" ref="J2:J33" si="0">IF(AND(100+$M$9&gt;H2,100-$M$9&lt;H2),"Pass","Fail")</f>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J2" s="1">
+        <f>H2</f>
+        <v>100</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <f t="shared" ref="L2:L33" si="0">IF(AND(100+$O$9&gt;J2,100-$O$9&lt;J2),"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1586,20 +1590,20 @@
       <c r="E3" s="1">
         <v>50</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G66" si="1">SUM(B3:F3)</f>
-        <v>100</v>
-      </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H66" si="2">G3</f>
-        <v>100</v>
-      </c>
-      <c r="J3" s="1" t="str">
+        <f t="shared" ref="H3:H66" si="1">SUM(B3:F3)</f>
+        <v>100</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J66" si="2">H3</f>
+        <v>100</v>
+      </c>
+      <c r="L3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1612,20 +1616,20 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H4" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1644,27 +1648,27 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H5" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="4"/>
+      <c r="O5" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1683,31 +1687,31 @@
       <c r="F6" s="1">
         <v>20</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <f t="shared" si="1"/>
         <v>100.00000000000001</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
         <f t="shared" si="2"/>
         <v>100.00000000000001</v>
       </c>
-      <c r="J6" s="1" t="str">
+      <c r="L6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="N6" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="M6" s="11">
-        <f>COUNTIF(J2:J149,"Pass")</f>
+      <c r="O6" s="11">
+        <f>COUNTIF(L2:L149,"Pass")</f>
         <v>89</v>
       </c>
-      <c r="N6" s="12">
-        <f>ROUND(M6/SUM($M$6:$M$7)*100,2)</f>
+      <c r="P6" s="12">
+        <f>ROUND(O6/SUM($O$6:$O$7)*100,2)</f>
         <v>60.14</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1726,31 +1730,31 @@
       <c r="F7" s="1">
         <v>3.7</v>
       </c>
-      <c r="G7" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="M7" s="8">
-        <f>COUNTIF(J3:J150,"Fail")</f>
+      <c r="O7" s="8">
+        <f>COUNTIF(L3:L150,"Fail")</f>
         <v>59</v>
       </c>
-      <c r="N7" s="9">
-        <f>ROUND(M7/SUM($M$6:$M$7)*100,2)</f>
+      <c r="P7" s="9">
+        <f>ROUND(O7/SUM($O$6:$O$7)*100,2)</f>
         <v>39.86</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1769,20 +1773,20 @@
       <c r="F8" s="1">
         <v>3.5</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <f t="shared" si="1"/>
         <v>99.9</v>
       </c>
-      <c r="H8" s="1">
+      <c r="J8" s="1">
         <f t="shared" si="2"/>
         <v>99.9</v>
       </c>
-      <c r="J8" s="1" t="str">
+      <c r="L8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1801,26 +1805,26 @@
       <c r="F9" s="1">
         <v>6.3</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <f t="shared" si="1"/>
         <v>100.09999999999998</v>
       </c>
-      <c r="H9" s="1">
+      <c r="J9" s="1">
         <f t="shared" si="2"/>
         <v>100.09999999999998</v>
       </c>
-      <c r="J9" s="1" t="str">
+      <c r="L9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>154</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1839,20 +1843,20 @@
       <c r="F10" s="1">
         <v>4.3</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <f t="shared" si="1"/>
         <v>99.899999999999991</v>
       </c>
-      <c r="H10" s="1">
+      <c r="J10" s="1">
         <f t="shared" si="2"/>
         <v>99.899999999999991</v>
       </c>
-      <c r="J10" s="1" t="str">
+      <c r="L10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1868,20 +1872,20 @@
       <c r="E11" s="1">
         <v>21.2</v>
       </c>
-      <c r="G11" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1897,20 +1901,20 @@
       <c r="E12" s="1">
         <v>31.4</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <f t="shared" si="1"/>
         <v>105.6</v>
       </c>
-      <c r="H12" s="1">
+      <c r="J12" s="1">
         <f t="shared" si="2"/>
         <v>105.6</v>
       </c>
-      <c r="J12" s="1" t="str">
+      <c r="L12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1929,20 +1933,20 @@
       <c r="F13" s="1">
         <v>11.1</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <f t="shared" si="1"/>
         <v>99.899999999999991</v>
       </c>
-      <c r="H13" s="1">
+      <c r="J13" s="1">
         <f t="shared" si="2"/>
         <v>99.899999999999991</v>
       </c>
-      <c r="J13" s="1" t="str">
+      <c r="L13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1958,20 +1962,20 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1990,20 +1994,20 @@
       <c r="F15" s="1">
         <v>5</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <f t="shared" si="1"/>
         <v>99.8</v>
       </c>
-      <c r="H15" s="1">
+      <c r="J15" s="1">
         <f t="shared" si="2"/>
         <v>99.8</v>
       </c>
-      <c r="J15" s="1" t="str">
+      <c r="L15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2022,20 +2026,20 @@
       <c r="F16" s="1">
         <v>24.8</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <f t="shared" si="1"/>
         <v>100.1</v>
       </c>
-      <c r="H16" s="1">
+      <c r="J16" s="1">
         <f t="shared" si="2"/>
         <v>100.1</v>
       </c>
-      <c r="J16" s="1" t="str">
+      <c r="L16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2054,20 +2058,20 @@
       <c r="F17" s="1">
         <v>9.1</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <f t="shared" si="1"/>
         <v>99.999999999999986</v>
       </c>
-      <c r="H17" s="1">
+      <c r="J17" s="1">
         <f t="shared" si="2"/>
         <v>99.999999999999986</v>
       </c>
-      <c r="J17" s="1" t="str">
+      <c r="L17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>147</v>
       </c>
@@ -2083,20 +2087,20 @@
       <c r="F18" s="1">
         <v>17.100000000000001</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <f t="shared" si="1"/>
         <v>100.1</v>
       </c>
-      <c r="H18" s="1">
+      <c r="J18" s="1">
         <f t="shared" si="2"/>
         <v>100.1</v>
       </c>
-      <c r="J18" s="1" t="str">
+      <c r="L18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -2115,20 +2119,20 @@
       <c r="F19" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="G19" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -2147,20 +2151,20 @@
       <c r="F20" s="1">
         <v>24</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <f t="shared" si="1"/>
         <v>100.1</v>
       </c>
-      <c r="H20" s="1">
+      <c r="J20" s="1">
         <f t="shared" si="2"/>
         <v>100.1</v>
       </c>
-      <c r="J20" s="1" t="str">
+      <c r="L20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -2179,20 +2183,20 @@
       <c r="F21" s="1">
         <v>6.8</v>
       </c>
-      <c r="G21" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H21" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -2211,20 +2215,20 @@
       <c r="F22" s="1">
         <v>8.4</v>
       </c>
-      <c r="G22" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H22" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -2243,20 +2247,20 @@
       <c r="F23" s="1">
         <v>7.2</v>
       </c>
-      <c r="G23" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H23" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -2275,20 +2279,20 @@
       <c r="F24" s="1">
         <v>7.7</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <f t="shared" si="1"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="H24" s="1">
+      <c r="J24" s="1">
         <f t="shared" si="2"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="J24" s="1" t="str">
+      <c r="L24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -2307,20 +2311,20 @@
       <c r="F25" s="1">
         <v>7.8</v>
       </c>
-      <c r="G25" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -2339,20 +2343,20 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-      <c r="G26" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -2371,20 +2375,20 @@
       <c r="F27" s="1">
         <v>0</v>
       </c>
-      <c r="G27" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -2403,20 +2407,20 @@
       <c r="F28" s="1">
         <v>0.9</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <f t="shared" si="1"/>
         <v>100.00000000000001</v>
       </c>
-      <c r="H28" s="1">
+      <c r="J28" s="1">
         <f t="shared" si="2"/>
         <v>100.00000000000001</v>
       </c>
-      <c r="J28" s="1" t="str">
+      <c r="L28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -2435,20 +2439,20 @@
       <c r="F29" s="1">
         <v>13.4</v>
       </c>
-      <c r="G29" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H29" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -2467,20 +2471,20 @@
       <c r="F30" s="1">
         <v>5.2</v>
       </c>
-      <c r="G30" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H30" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -2499,20 +2503,20 @@
       <c r="F31" s="1">
         <v>31.2</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <f t="shared" si="1"/>
         <v>100.00000000000001</v>
       </c>
-      <c r="H31" s="1">
+      <c r="J31" s="1">
         <f t="shared" si="2"/>
         <v>100.00000000000001</v>
       </c>
-      <c r="J31" s="1" t="str">
+      <c r="L31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -2531,20 +2535,20 @@
       <c r="F32" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <f t="shared" si="1"/>
         <v>99.899999999999991</v>
       </c>
-      <c r="H32" s="1">
+      <c r="J32" s="1">
         <f t="shared" si="2"/>
         <v>99.899999999999991</v>
       </c>
-      <c r="J32" s="1" t="str">
+      <c r="L32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -2563,20 +2567,20 @@
       <c r="F33" s="1">
         <v>6.1</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <f t="shared" si="1"/>
         <v>100.1</v>
       </c>
-      <c r="H33" s="1">
+      <c r="J33" s="1">
         <f t="shared" si="2"/>
         <v>100.1</v>
       </c>
-      <c r="J33" s="1" t="str">
+      <c r="L33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>148</v>
       </c>
@@ -2595,20 +2599,20 @@
       <c r="F34" s="1">
         <v>0.3</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <f t="shared" si="1"/>
         <v>99.999999999999986</v>
       </c>
-      <c r="H34" s="1">
+      <c r="J34" s="1">
         <f t="shared" si="2"/>
         <v>99.999999999999986</v>
       </c>
-      <c r="J34" s="1" t="str">
-        <f t="shared" ref="J34:J65" si="3">IF(AND(100+$M$9&gt;H34,100-$M$9&lt;H34),"Pass","Fail")</f>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L34" s="1" t="str">
+        <f t="shared" ref="L34:L65" si="3">IF(AND(100+$O$9&gt;J34,100-$O$9&lt;J34),"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -2627,20 +2631,20 @@
       <c r="F35" s="1">
         <v>3.8</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <f t="shared" si="1"/>
         <v>100.00000000000001</v>
       </c>
-      <c r="H35" s="1">
+      <c r="J35" s="1">
         <f t="shared" si="2"/>
         <v>100.00000000000001</v>
       </c>
-      <c r="J35" s="1" t="str">
+      <c r="L35" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
@@ -2659,20 +2663,20 @@
       <c r="F36" s="1">
         <v>20</v>
       </c>
-      <c r="G36" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H36" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L36" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
@@ -2691,20 +2695,20 @@
       <c r="F37" s="1">
         <v>4</v>
       </c>
-      <c r="G37" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H37" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L37" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
@@ -2723,20 +2727,20 @@
       <c r="F38" s="1">
         <v>54</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <f t="shared" si="1"/>
         <v>99.9</v>
       </c>
-      <c r="H38" s="1">
+      <c r="J38" s="1">
         <f t="shared" si="2"/>
         <v>99.9</v>
       </c>
-      <c r="J38" s="1" t="str">
+      <c r="L38" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
@@ -2755,20 +2759,20 @@
       <c r="F39" s="1">
         <v>21.2</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <f t="shared" si="1"/>
         <v>99.9</v>
       </c>
-      <c r="H39" s="1">
+      <c r="J39" s="1">
         <f t="shared" si="2"/>
         <v>99.9</v>
       </c>
-      <c r="J39" s="1" t="str">
+      <c r="L39" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>37</v>
       </c>
@@ -2787,20 +2791,20 @@
       <c r="F40" s="1">
         <v>3.3</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <f t="shared" si="1"/>
         <v>99.999999999999986</v>
       </c>
-      <c r="H40" s="1">
+      <c r="J40" s="1">
         <f t="shared" si="2"/>
         <v>99.999999999999986</v>
       </c>
-      <c r="J40" s="1" t="str">
+      <c r="L40" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
@@ -2819,20 +2823,20 @@
       <c r="F41" s="1">
         <v>27.7</v>
       </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
         <f t="shared" si="1"/>
         <v>100.00000000000001</v>
       </c>
-      <c r="H41" s="1">
+      <c r="J41" s="1">
         <f t="shared" si="2"/>
         <v>100.00000000000001</v>
       </c>
-      <c r="J41" s="1" t="str">
+      <c r="L41" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
@@ -2851,20 +2855,20 @@
       <c r="F42" s="1">
         <v>8.5</v>
       </c>
-      <c r="G42" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H42" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L42" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
@@ -2883,20 +2887,20 @@
       <c r="F43" s="1">
         <v>0</v>
       </c>
-      <c r="G43" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H43" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L43" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
@@ -2912,20 +2916,20 @@
       <c r="E44" s="1">
         <v>33.5</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
         <f t="shared" si="1"/>
         <v>99.9</v>
       </c>
-      <c r="H44" s="1">
+      <c r="J44" s="1">
         <f t="shared" si="2"/>
         <v>99.9</v>
       </c>
-      <c r="J44" s="1" t="str">
+      <c r="L44" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -2938,20 +2942,20 @@
       <c r="F45" s="1">
         <v>63.3</v>
       </c>
-      <c r="G45" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H45" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L45" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
@@ -2964,20 +2968,20 @@
       <c r="F46" s="1">
         <v>0</v>
       </c>
-      <c r="G46" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H46" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L46" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
@@ -2996,20 +3000,20 @@
       <c r="F47" s="1">
         <v>6.3</v>
       </c>
-      <c r="G47" s="1">
+      <c r="H47" s="1">
         <f t="shared" si="1"/>
         <v>99.9</v>
       </c>
-      <c r="H47" s="1">
+      <c r="J47" s="1">
         <f t="shared" si="2"/>
         <v>99.9</v>
       </c>
-      <c r="J47" s="1" t="str">
+      <c r="L47" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>44</v>
       </c>
@@ -3028,20 +3032,20 @@
       <c r="F48" s="1">
         <v>3.8</v>
       </c>
-      <c r="G48" s="1">
+      <c r="H48" s="1">
         <f t="shared" si="1"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="H48" s="1">
+      <c r="J48" s="1">
         <f t="shared" si="2"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="J48" s="1" t="str">
+      <c r="L48" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
@@ -3060,20 +3064,20 @@
       <c r="F49" s="1">
         <v>27.4</v>
       </c>
-      <c r="G49" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H49" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L49" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
@@ -3092,20 +3096,20 @@
       <c r="F50" s="1">
         <v>5.9</v>
       </c>
-      <c r="G50" s="1">
+      <c r="H50" s="1">
         <f t="shared" si="1"/>
         <v>100.1</v>
       </c>
-      <c r="H50" s="1">
+      <c r="J50" s="1">
         <f t="shared" si="2"/>
         <v>100.1</v>
       </c>
-      <c r="J50" s="1" t="str">
+      <c r="L50" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
@@ -3124,20 +3128,20 @@
       <c r="F51" s="1">
         <v>20.7</v>
       </c>
-      <c r="G51" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H51" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L51" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
@@ -3156,20 +3160,20 @@
       <c r="F52" s="1">
         <v>7</v>
       </c>
-      <c r="G52" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H52" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L52" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
@@ -3188,20 +3192,20 @@
       <c r="F53" s="1">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G53" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H53" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L53" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>50</v>
       </c>
@@ -3220,20 +3224,20 @@
       <c r="F54" s="1">
         <v>11.7</v>
       </c>
-      <c r="G54" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H54" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L54" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>51</v>
       </c>
@@ -3252,20 +3256,20 @@
       <c r="F55" s="1">
         <v>25.1</v>
       </c>
-      <c r="G55" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H55" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J55" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L55" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>52</v>
       </c>
@@ -3284,20 +3288,20 @@
       <c r="F56" s="1">
         <v>8.1</v>
       </c>
-      <c r="G56" s="1">
+      <c r="H56" s="1">
         <f t="shared" si="1"/>
         <v>99.899999999999991</v>
       </c>
-      <c r="H56" s="1">
+      <c r="J56" s="1">
         <f t="shared" si="2"/>
         <v>99.899999999999991</v>
       </c>
-      <c r="J56" s="1" t="str">
+      <c r="L56" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>53</v>
       </c>
@@ -3316,20 +3320,20 @@
       <c r="F57" s="1">
         <v>5.6</v>
       </c>
-      <c r="G57" s="1">
+      <c r="H57" s="1">
         <f t="shared" si="1"/>
         <v>99.999999999999986</v>
       </c>
-      <c r="H57" s="1">
+      <c r="J57" s="1">
         <f t="shared" si="2"/>
         <v>99.999999999999986</v>
       </c>
-      <c r="J57" s="1" t="str">
+      <c r="L57" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>54</v>
       </c>
@@ -3348,20 +3352,20 @@
       <c r="F58" s="1">
         <v>30.4</v>
       </c>
-      <c r="G58" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H58" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J58" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L58" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>55</v>
       </c>
@@ -3380,20 +3384,20 @@
       <c r="F59" s="1">
         <v>2.7</v>
       </c>
-      <c r="G59" s="1">
+      <c r="H59" s="1">
         <f t="shared" si="1"/>
         <v>99.9</v>
       </c>
-      <c r="H59" s="1">
+      <c r="J59" s="1">
         <f t="shared" si="2"/>
         <v>99.9</v>
       </c>
-      <c r="J59" s="1" t="str">
+      <c r="L59" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>146</v>
       </c>
@@ -3412,20 +3416,20 @@
       <c r="F60" s="1">
         <v>5</v>
       </c>
-      <c r="G60" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H60" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J60" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L60" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>56</v>
       </c>
@@ -3444,20 +3448,20 @@
       <c r="F61" s="1">
         <v>2.1</v>
       </c>
-      <c r="G61" s="1">
+      <c r="H61" s="1">
         <f t="shared" si="1"/>
         <v>99.9</v>
       </c>
-      <c r="H61" s="1">
+      <c r="J61" s="1">
         <f t="shared" si="2"/>
         <v>99.9</v>
       </c>
-      <c r="J61" s="1" t="str">
+      <c r="L61" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>57</v>
       </c>
@@ -3476,20 +3480,20 @@
       <c r="F62" s="1">
         <v>10.1</v>
       </c>
-      <c r="G62" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H62" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J62" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L62" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>58</v>
       </c>
@@ -3508,20 +3512,20 @@
       <c r="F63" s="1">
         <v>6.7</v>
       </c>
-      <c r="G63" s="1">
+      <c r="H63" s="1">
         <f t="shared" si="1"/>
         <v>100.00000000000001</v>
       </c>
-      <c r="H63" s="1">
+      <c r="J63" s="1">
         <f t="shared" si="2"/>
         <v>100.00000000000001</v>
       </c>
-      <c r="J63" s="1" t="str">
+      <c r="L63" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>59</v>
       </c>
@@ -3540,20 +3544,20 @@
       <c r="F64" s="1">
         <v>7.7</v>
       </c>
-      <c r="G64" s="1">
+      <c r="H64" s="1">
         <f t="shared" si="1"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="H64" s="1">
+      <c r="J64" s="1">
         <f t="shared" si="2"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="J64" s="1" t="str">
+      <c r="L64" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>60</v>
       </c>
@@ -3572,20 +3576,20 @@
       <c r="F65" s="1">
         <v>1</v>
       </c>
-      <c r="G65" s="1">
+      <c r="H65" s="1">
         <f t="shared" si="1"/>
         <v>100.69999999999999</v>
       </c>
-      <c r="H65" s="1">
+      <c r="J65" s="1">
         <f t="shared" si="2"/>
         <v>100.69999999999999</v>
       </c>
-      <c r="J65" s="1" t="str">
+      <c r="L65" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>61</v>
       </c>
@@ -3604,20 +3608,20 @@
       <c r="F66" s="1">
         <v>0</v>
       </c>
-      <c r="G66" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
       <c r="H66" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="J66" s="1" t="str">
-        <f t="shared" ref="J66:J97" si="4">IF(AND(100+$M$9&gt;H66,100-$M$9&lt;H66),"Pass","Fail")</f>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J66" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L66" s="1" t="str">
+        <f t="shared" ref="L66:L97" si="4">IF(AND(100+$O$9&gt;J66,100-$O$9&lt;J66),"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>62</v>
       </c>
@@ -3636,20 +3640,20 @@
       <c r="F67" s="1">
         <v>3.3</v>
       </c>
-      <c r="G67" s="1">
-        <f t="shared" ref="G67:G130" si="5">SUM(B67:F67)</f>
+      <c r="H67" s="1">
+        <f t="shared" ref="H67:H130" si="5">SUM(B67:F67)</f>
         <v>99.999999999999986</v>
       </c>
-      <c r="H67" s="1">
-        <f t="shared" ref="H67:H130" si="6">G67</f>
+      <c r="J67" s="1">
+        <f t="shared" ref="J67:J130" si="6">H67</f>
         <v>99.999999999999986</v>
       </c>
-      <c r="J67" s="1" t="str">
+      <c r="L67" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>63</v>
       </c>
@@ -3668,20 +3672,20 @@
       <c r="F68" s="1">
         <v>0</v>
       </c>
-      <c r="G68" s="1">
+      <c r="H68" s="1">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="H68" s="1">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="J68" s="1" t="str">
+      <c r="J68" s="1">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L68" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>64</v>
       </c>
@@ -3700,20 +3704,20 @@
       <c r="F69" s="1">
         <v>0</v>
       </c>
-      <c r="G69" s="1">
+      <c r="H69" s="1">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="H69" s="1">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="J69" s="1" t="str">
+      <c r="J69" s="1">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L69" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>65</v>
       </c>
@@ -3732,20 +3736,20 @@
       <c r="F70" s="1">
         <v>30</v>
       </c>
-      <c r="G70" s="1">
+      <c r="H70" s="1">
         <f t="shared" si="5"/>
         <v>99.9</v>
       </c>
-      <c r="H70" s="1">
+      <c r="J70" s="1">
         <f t="shared" si="6"/>
         <v>99.9</v>
       </c>
-      <c r="J70" s="1" t="str">
+      <c r="L70" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>66</v>
       </c>
@@ -3764,20 +3768,20 @@
       <c r="F71" s="1">
         <v>3.8</v>
       </c>
-      <c r="G71" s="1">
+      <c r="H71" s="1">
         <f t="shared" si="5"/>
         <v>99.899999999999991</v>
       </c>
-      <c r="H71" s="1">
+      <c r="J71" s="1">
         <f t="shared" si="6"/>
         <v>99.899999999999991</v>
       </c>
-      <c r="J71" s="1" t="str">
+      <c r="L71" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>67</v>
       </c>
@@ -3793,20 +3797,20 @@
       <c r="F72" s="1">
         <v>0</v>
       </c>
-      <c r="G72" s="1">
+      <c r="H72" s="1">
         <f t="shared" si="5"/>
         <v>100.1</v>
       </c>
-      <c r="H72" s="1">
+      <c r="J72" s="1">
         <f t="shared" si="6"/>
         <v>100.1</v>
       </c>
-      <c r="J72" s="1" t="str">
+      <c r="L72" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>68</v>
       </c>
@@ -3825,20 +3829,20 @@
       <c r="F73" s="1">
         <v>0</v>
       </c>
-      <c r="G73" s="1">
+      <c r="H73" s="1">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="H73" s="1">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="J73" s="1" t="str">
+      <c r="J73" s="1">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L73" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>69</v>
       </c>
@@ -3857,20 +3861,20 @@
       <c r="F74" s="1">
         <v>1</v>
       </c>
-      <c r="G74" s="1">
+      <c r="H74" s="1">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="H74" s="1">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="J74" s="1" t="str">
+      <c r="J74" s="1">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L74" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>70</v>
       </c>
@@ -3889,20 +3893,20 @@
       <c r="F75" s="1">
         <v>0</v>
       </c>
-      <c r="G75" s="1">
+      <c r="H75" s="1">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="H75" s="1">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="J75" s="1" t="str">
+      <c r="J75" s="1">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L75" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>71</v>
       </c>
@@ -3915,20 +3919,20 @@
       <c r="F76" s="1">
         <v>0</v>
       </c>
-      <c r="G76" s="1">
+      <c r="H76" s="1">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="H76" s="1">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="J76" s="1" t="str">
+      <c r="J76" s="1">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L76" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>72</v>
       </c>
@@ -3947,20 +3951,20 @@
       <c r="F77" s="1">
         <v>0.1</v>
       </c>
-      <c r="G77" s="1">
+      <c r="H77" s="1">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="H77" s="1">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="J77" s="1" t="str">
+      <c r="J77" s="1">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L77" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>73</v>
       </c>
@@ -3979,20 +3983,20 @@
       <c r="F78" s="1">
         <v>0</v>
       </c>
-      <c r="G78" s="1">
+      <c r="H78" s="1">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="H78" s="1">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="J78" s="1" t="str">
+      <c r="J78" s="1">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L78" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>74</v>
       </c>
@@ -4011,20 +4015,20 @@
       <c r="F79" s="1">
         <v>15.9</v>
       </c>
-      <c r="G79" s="1">
+      <c r="H79" s="1">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="H79" s="1">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="J79" s="1" t="str">
+      <c r="J79" s="1">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L79" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>75</v>
       </c>
@@ -4043,20 +4047,20 @@
       <c r="F80" s="1">
         <v>9.1</v>
       </c>
-      <c r="G80" s="1">
+      <c r="H80" s="1">
         <f t="shared" si="5"/>
         <v>99.999999999999986</v>
       </c>
-      <c r="H80" s="1">
+      <c r="J80" s="1">
         <f t="shared" si="6"/>
         <v>99.999999999999986</v>
       </c>
-      <c r="J80" s="1" t="str">
+      <c r="L80" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>76</v>
       </c>
@@ -4066,20 +4070,20 @@
       <c r="C81" s="1">
         <v>66.7</v>
       </c>
-      <c r="G81" s="1">
+      <c r="H81" s="1">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="H81" s="1">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="J81" s="1" t="str">
+      <c r="J81" s="1">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L81" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>77</v>
       </c>
@@ -4098,20 +4102,20 @@
       <c r="F82" s="1">
         <v>0</v>
       </c>
-      <c r="G82" s="1">
+      <c r="H82" s="1">
         <f>SUM(B82:F82)</f>
         <v>100</v>
       </c>
-      <c r="H82" s="1">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="J82" s="1" t="str">
+      <c r="J82" s="1">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L82" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>78</v>
       </c>
@@ -4130,20 +4134,20 @@
       <c r="F83" s="1">
         <v>42.4</v>
       </c>
-      <c r="G83" s="1">
+      <c r="H83" s="1">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="H83" s="1">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="J83" s="1" t="str">
+      <c r="J83" s="1">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L83" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>149</v>
       </c>
@@ -4162,20 +4166,20 @@
       <c r="F84" s="1">
         <v>0</v>
       </c>
-      <c r="G84" s="1">
+      <c r="H84" s="1">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="H84" s="1">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="J84" s="1" t="str">
+      <c r="J84" s="1">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L84" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>79</v>
       </c>
@@ -4194,20 +4198,20 @@
       <c r="F85" s="1">
         <v>12.2</v>
       </c>
-      <c r="G85" s="1">
+      <c r="H85" s="1">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="H85" s="1">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="J85" s="1" t="str">
+      <c r="J85" s="1">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L85" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>80</v>
       </c>
@@ -4226,20 +4230,20 @@
       <c r="F86" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G86" s="1">
+      <c r="H86" s="1">
         <f t="shared" si="5"/>
         <v>99.899999999999991</v>
       </c>
-      <c r="H86" s="1">
+      <c r="J86" s="1">
         <f t="shared" si="6"/>
         <v>99.899999999999991</v>
       </c>
-      <c r="J86" s="1" t="str">
+      <c r="L86" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>81</v>
       </c>
@@ -4258,20 +4262,20 @@
       <c r="F87" s="1">
         <v>7.9</v>
       </c>
-      <c r="G87" s="1">
+      <c r="H87" s="1">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="H87" s="1">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="J87" s="1" t="str">
+      <c r="J87" s="1">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L87" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>82</v>
       </c>
@@ -4290,20 +4294,20 @@
       <c r="F88" s="1">
         <v>7.1</v>
       </c>
-      <c r="G88" s="1">
+      <c r="H88" s="1">
         <f t="shared" si="5"/>
         <v>99.999999999999986</v>
       </c>
-      <c r="H88" s="1">
+      <c r="J88" s="1">
         <f t="shared" si="6"/>
         <v>99.999999999999986</v>
       </c>
-      <c r="J88" s="1" t="str">
+      <c r="L88" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>83</v>
       </c>
@@ -4322,20 +4326,20 @@
       <c r="F89" s="1">
         <v>1.6</v>
       </c>
-      <c r="G89" s="1">
+      <c r="H89" s="1">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="H89" s="1">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="J89" s="1" t="str">
+      <c r="J89" s="1">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L89" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>84</v>
       </c>
@@ -4354,20 +4358,20 @@
       <c r="F90" s="1">
         <v>6.4</v>
       </c>
-      <c r="G90" s="1">
+      <c r="H90" s="1">
         <f t="shared" si="5"/>
         <v>99.9</v>
       </c>
-      <c r="H90" s="1">
+      <c r="J90" s="1">
         <f t="shared" si="6"/>
         <v>99.9</v>
       </c>
-      <c r="J90" s="1" t="str">
+      <c r="L90" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>85</v>
       </c>
@@ -4386,40 +4390,40 @@
       <c r="F91" s="1">
         <v>12.5</v>
       </c>
-      <c r="G91" s="1">
+      <c r="H91" s="1">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="H91" s="1">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="J91" s="1" t="str">
+      <c r="J91" s="1">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L91" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B92" s="1">
         <v>49.6</v>
       </c>
-      <c r="G92" s="1">
+      <c r="H92" s="1">
         <f t="shared" si="5"/>
         <v>49.6</v>
       </c>
-      <c r="H92" s="1">
+      <c r="J92" s="1">
         <f t="shared" si="6"/>
         <v>49.6</v>
       </c>
-      <c r="J92" s="1" t="str">
+      <c r="L92" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>87</v>
       </c>
@@ -4438,20 +4442,20 @@
       <c r="F93" s="1">
         <v>12.6</v>
       </c>
-      <c r="G93" s="1">
+      <c r="H93" s="1">
         <f t="shared" si="5"/>
         <v>115.10000000000001</v>
       </c>
-      <c r="H93" s="1">
+      <c r="J93" s="1">
         <f t="shared" si="6"/>
         <v>115.10000000000001</v>
       </c>
-      <c r="J93" s="1" t="str">
+      <c r="L93" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>150</v>
       </c>
@@ -4470,20 +4474,20 @@
       <c r="F94" s="1">
         <v>10.7</v>
       </c>
-      <c r="G94" s="1">
+      <c r="H94" s="1">
         <f t="shared" si="5"/>
         <v>74.5</v>
       </c>
-      <c r="H94" s="1">
+      <c r="J94" s="1">
         <f t="shared" si="6"/>
         <v>74.5</v>
       </c>
-      <c r="J94" s="1" t="str">
+      <c r="L94" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>88</v>
       </c>
@@ -4499,60 +4503,60 @@
       <c r="F95" s="1">
         <v>8.1</v>
       </c>
-      <c r="G95" s="1">
+      <c r="H95" s="1">
         <f t="shared" si="5"/>
         <v>35.200000000000003</v>
       </c>
-      <c r="H95" s="1">
+      <c r="J95" s="1">
         <f t="shared" si="6"/>
         <v>35.200000000000003</v>
       </c>
-      <c r="J95" s="1" t="str">
+      <c r="L95" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B96" s="1">
         <v>32.299999999999997</v>
       </c>
-      <c r="G96" s="1">
+      <c r="H96" s="1">
         <f t="shared" si="5"/>
         <v>32.299999999999997</v>
       </c>
-      <c r="H96" s="1">
+      <c r="J96" s="1">
         <f t="shared" si="6"/>
         <v>32.299999999999997</v>
       </c>
-      <c r="J96" s="1" t="str">
+      <c r="L96" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E97" s="1">
         <v>100</v>
       </c>
-      <c r="G97" s="1">
+      <c r="H97" s="1">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="H97" s="1">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="J97" s="1" t="str">
+      <c r="J97" s="1">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L97" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>91</v>
       </c>
@@ -4571,20 +4575,20 @@
       <c r="F98" s="1">
         <v>17.5</v>
       </c>
-      <c r="G98" s="1">
+      <c r="H98" s="1">
         <f t="shared" si="5"/>
         <v>120.1</v>
       </c>
-      <c r="H98" s="1">
+      <c r="J98" s="1">
         <f t="shared" si="6"/>
         <v>120.1</v>
       </c>
-      <c r="J98" s="1" t="str">
-        <f t="shared" ref="J98:J129" si="7">IF(AND(100+$M$9&gt;H98,100-$M$9&lt;H98),"Pass","Fail")</f>
+      <c r="L98" s="1" t="str">
+        <f t="shared" ref="L98:L129" si="7">IF(AND(100+$O$9&gt;J98,100-$O$9&lt;J98),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>92</v>
       </c>
@@ -4597,20 +4601,20 @@
       <c r="F99" s="1">
         <v>0</v>
       </c>
-      <c r="G99" s="1">
+      <c r="H99" s="1">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="H99" s="1">
+      <c r="J99" s="1">
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="J99" s="1" t="str">
+      <c r="L99" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>93</v>
       </c>
@@ -4629,20 +4633,20 @@
       <c r="F100" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G100" s="1">
+      <c r="H100" s="1">
         <f t="shared" si="5"/>
         <v>86.100000000000009</v>
       </c>
-      <c r="H100" s="1">
+      <c r="J100" s="1">
         <f t="shared" si="6"/>
         <v>86.100000000000009</v>
       </c>
-      <c r="J100" s="1" t="str">
+      <c r="L100" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>94</v>
       </c>
@@ -4661,20 +4665,20 @@
       <c r="F101" s="1">
         <v>88.6</v>
       </c>
-      <c r="G101" s="1">
+      <c r="H101" s="1">
         <f t="shared" si="5"/>
         <v>97.8</v>
       </c>
-      <c r="H101" s="1">
+      <c r="J101" s="1">
         <f t="shared" si="6"/>
         <v>97.8</v>
       </c>
-      <c r="J101" s="1" t="str">
+      <c r="L101" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>95</v>
       </c>
@@ -4693,20 +4697,20 @@
       <c r="F102" s="1">
         <v>93.9</v>
       </c>
-      <c r="G102" s="1">
+      <c r="H102" s="1">
         <f t="shared" si="5"/>
         <v>146.5</v>
       </c>
-      <c r="H102" s="1">
+      <c r="J102" s="1">
         <f t="shared" si="6"/>
         <v>146.5</v>
       </c>
-      <c r="J102" s="1" t="str">
+      <c r="L102" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>96</v>
       </c>
@@ -4725,20 +4729,20 @@
       <c r="F103" s="1">
         <v>4.3</v>
       </c>
-      <c r="G103" s="1">
+      <c r="H103" s="1">
         <f t="shared" si="5"/>
         <v>100.8</v>
       </c>
-      <c r="H103" s="1">
+      <c r="J103" s="1">
         <f t="shared" si="6"/>
         <v>100.8</v>
       </c>
-      <c r="J103" s="1" t="str">
+      <c r="L103" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>97</v>
       </c>
@@ -4757,20 +4761,20 @@
       <c r="F104" s="1">
         <v>6.4</v>
       </c>
-      <c r="G104" s="1">
+      <c r="H104" s="1">
         <f t="shared" si="5"/>
         <v>100.7</v>
       </c>
-      <c r="H104" s="1">
+      <c r="J104" s="1">
         <f t="shared" si="6"/>
         <v>100.7</v>
       </c>
-      <c r="J104" s="1" t="str">
+      <c r="L104" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>98</v>
       </c>
@@ -4786,20 +4790,20 @@
       <c r="F105" s="1">
         <v>14.6</v>
       </c>
-      <c r="G105" s="1">
+      <c r="H105" s="1">
         <f t="shared" si="5"/>
         <v>51.6</v>
       </c>
-      <c r="H105" s="1">
+      <c r="J105" s="1">
         <f t="shared" si="6"/>
         <v>51.6</v>
       </c>
-      <c r="J105" s="1" t="str">
+      <c r="L105" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>99</v>
       </c>
@@ -4818,20 +4822,20 @@
       <c r="F106" s="1">
         <v>33.700000000000003</v>
       </c>
-      <c r="G106" s="1">
+      <c r="H106" s="1">
         <f t="shared" si="5"/>
         <v>117.60000000000001</v>
       </c>
-      <c r="H106" s="1">
+      <c r="J106" s="1">
         <f t="shared" si="6"/>
         <v>117.60000000000001</v>
       </c>
-      <c r="J106" s="1" t="str">
+      <c r="L106" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>100</v>
       </c>
@@ -4850,20 +4854,20 @@
       <c r="F107" s="1">
         <v>58.1</v>
       </c>
-      <c r="G107" s="1">
+      <c r="H107" s="1">
         <f t="shared" si="5"/>
         <v>128.4</v>
       </c>
-      <c r="H107" s="1">
+      <c r="J107" s="1">
         <f t="shared" si="6"/>
         <v>128.4</v>
       </c>
-      <c r="J107" s="1" t="str">
+      <c r="L107" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>101</v>
       </c>
@@ -4879,20 +4883,20 @@
       <c r="F108" s="1">
         <v>4.7</v>
       </c>
-      <c r="G108" s="1">
+      <c r="H108" s="1">
         <f t="shared" si="5"/>
         <v>53.400000000000006</v>
       </c>
-      <c r="H108" s="1">
+      <c r="J108" s="1">
         <f t="shared" si="6"/>
         <v>53.400000000000006</v>
       </c>
-      <c r="J108" s="1" t="str">
+      <c r="L108" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>102</v>
       </c>
@@ -4911,20 +4915,20 @@
       <c r="F109" s="1">
         <v>3.3</v>
       </c>
-      <c r="G109" s="1">
+      <c r="H109" s="1">
         <f t="shared" si="5"/>
         <v>111.5</v>
       </c>
-      <c r="H109" s="1">
+      <c r="J109" s="1">
         <f t="shared" si="6"/>
         <v>111.5</v>
       </c>
-      <c r="J109" s="1" t="str">
+      <c r="L109" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>103</v>
       </c>
@@ -4940,40 +4944,40 @@
       <c r="F110" s="1">
         <v>5.3</v>
       </c>
-      <c r="G110" s="1">
+      <c r="H110" s="1">
         <f t="shared" si="5"/>
         <v>42.4</v>
       </c>
-      <c r="H110" s="1">
+      <c r="J110" s="1">
         <f t="shared" si="6"/>
         <v>42.4</v>
       </c>
-      <c r="J110" s="1" t="str">
+      <c r="L110" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B111" s="1">
         <v>46.7</v>
       </c>
-      <c r="G111" s="1">
+      <c r="H111" s="1">
         <f t="shared" si="5"/>
         <v>46.7</v>
       </c>
-      <c r="H111" s="1">
+      <c r="J111" s="1">
         <f t="shared" si="6"/>
         <v>46.7</v>
       </c>
-      <c r="J111" s="1" t="str">
+      <c r="L111" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>105</v>
       </c>
@@ -4992,40 +4996,40 @@
       <c r="F112" s="1">
         <v>6.7</v>
       </c>
-      <c r="G112" s="1">
+      <c r="H112" s="1">
         <f t="shared" si="5"/>
         <v>94.5</v>
       </c>
-      <c r="H112" s="1">
+      <c r="J112" s="1">
         <f t="shared" si="6"/>
         <v>94.5</v>
       </c>
-      <c r="J112" s="1" t="str">
+      <c r="L112" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E113" s="1">
         <v>47.1</v>
       </c>
-      <c r="G113" s="1">
+      <c r="H113" s="1">
         <f t="shared" si="5"/>
         <v>47.1</v>
       </c>
-      <c r="H113" s="1">
+      <c r="J113" s="1">
         <f t="shared" si="6"/>
         <v>47.1</v>
       </c>
-      <c r="J113" s="1" t="str">
+      <c r="L113" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>106</v>
       </c>
@@ -5038,20 +5042,20 @@
       <c r="F114" s="1">
         <v>5.9</v>
       </c>
-      <c r="G114" s="1">
+      <c r="H114" s="1">
         <f t="shared" si="5"/>
         <v>11.8</v>
       </c>
-      <c r="H114" s="1">
+      <c r="J114" s="1">
         <f t="shared" si="6"/>
         <v>11.8</v>
       </c>
-      <c r="J114" s="1" t="str">
+      <c r="L114" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>107</v>
       </c>
@@ -5061,20 +5065,20 @@
       <c r="E115" s="1">
         <v>23.1</v>
       </c>
-      <c r="G115" s="1">
+      <c r="H115" s="1">
         <f t="shared" si="5"/>
         <v>69.400000000000006</v>
       </c>
-      <c r="H115" s="1">
+      <c r="J115" s="1">
         <f t="shared" si="6"/>
         <v>69.400000000000006</v>
       </c>
-      <c r="J115" s="1" t="str">
+      <c r="L115" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>108</v>
       </c>
@@ -5093,20 +5097,20 @@
       <c r="F116" s="1">
         <v>12.5</v>
       </c>
-      <c r="G116" s="1">
+      <c r="H116" s="1">
         <f t="shared" si="5"/>
         <v>97.300000000000011</v>
       </c>
-      <c r="H116" s="1">
+      <c r="J116" s="1">
         <f t="shared" si="6"/>
         <v>97.300000000000011</v>
       </c>
-      <c r="J116" s="1" t="str">
+      <c r="L116" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>109</v>
       </c>
@@ -5125,20 +5129,20 @@
       <c r="F117" s="1">
         <v>6.7</v>
       </c>
-      <c r="G117" s="1">
+      <c r="H117" s="1">
         <f t="shared" si="5"/>
         <v>74.5</v>
       </c>
-      <c r="H117" s="1">
+      <c r="J117" s="1">
         <f t="shared" si="6"/>
         <v>74.5</v>
       </c>
-      <c r="J117" s="1" t="str">
+      <c r="L117" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>110</v>
       </c>
@@ -5157,20 +5161,20 @@
       <c r="F118" s="1">
         <v>0.7</v>
       </c>
-      <c r="G118" s="1">
+      <c r="H118" s="1">
         <f t="shared" si="5"/>
         <v>138.19999999999999</v>
       </c>
-      <c r="H118" s="1">
+      <c r="J118" s="1">
         <f t="shared" si="6"/>
         <v>138.19999999999999</v>
       </c>
-      <c r="J118" s="1" t="str">
+      <c r="L118" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>111</v>
       </c>
@@ -5189,20 +5193,20 @@
       <c r="F119" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G119" s="1">
+      <c r="H119" s="1">
         <f t="shared" si="5"/>
         <v>84.5</v>
       </c>
-      <c r="H119" s="1">
+      <c r="J119" s="1">
         <f t="shared" si="6"/>
         <v>84.5</v>
       </c>
-      <c r="J119" s="1" t="str">
+      <c r="L119" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>112</v>
       </c>
@@ -5215,20 +5219,20 @@
       <c r="F120" s="1">
         <v>6.9</v>
       </c>
-      <c r="G120" s="1">
+      <c r="H120" s="1">
         <f t="shared" si="5"/>
         <v>36.1</v>
       </c>
-      <c r="H120" s="1">
+      <c r="J120" s="1">
         <f t="shared" si="6"/>
         <v>36.1</v>
       </c>
-      <c r="J120" s="1" t="str">
+      <c r="L120" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>113</v>
       </c>
@@ -5238,20 +5242,20 @@
       <c r="E121" s="1">
         <v>38.4</v>
       </c>
-      <c r="G121" s="1">
+      <c r="H121" s="1">
         <f t="shared" si="5"/>
         <v>83.3</v>
       </c>
-      <c r="H121" s="1">
+      <c r="J121" s="1">
         <f t="shared" si="6"/>
         <v>83.3</v>
       </c>
-      <c r="J121" s="1" t="str">
+      <c r="L121" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>114</v>
       </c>
@@ -5264,20 +5268,20 @@
       <c r="F122" s="1">
         <v>13.1</v>
       </c>
-      <c r="G122" s="1">
+      <c r="H122" s="1">
         <f t="shared" si="5"/>
         <v>16.600000000000001</v>
       </c>
-      <c r="H122" s="1">
+      <c r="J122" s="1">
         <f t="shared" si="6"/>
         <v>16.600000000000001</v>
       </c>
-      <c r="J122" s="1" t="str">
+      <c r="L122" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>115</v>
       </c>
@@ -5287,20 +5291,20 @@
       <c r="E123" s="1">
         <v>21.5</v>
       </c>
-      <c r="G123" s="1">
+      <c r="H123" s="1">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="H123" s="1">
+      <c r="J123" s="1">
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="J123" s="1" t="str">
+      <c r="L123" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>116</v>
       </c>
@@ -5319,20 +5323,20 @@
       <c r="F124" s="1">
         <v>6.4</v>
       </c>
-      <c r="G124" s="1">
+      <c r="H124" s="1">
         <f t="shared" si="5"/>
         <v>67.400000000000006</v>
       </c>
-      <c r="H124" s="1">
+      <c r="J124" s="1">
         <f t="shared" si="6"/>
         <v>67.400000000000006</v>
       </c>
-      <c r="J124" s="1" t="str">
+      <c r="L124" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>117</v>
       </c>
@@ -5348,20 +5352,20 @@
       <c r="F125" s="1">
         <v>5.7</v>
       </c>
-      <c r="G125" s="1">
+      <c r="H125" s="1">
         <f t="shared" si="5"/>
         <v>93.2</v>
       </c>
-      <c r="H125" s="1">
+      <c r="J125" s="1">
         <f t="shared" si="6"/>
         <v>93.2</v>
       </c>
-      <c r="J125" s="1" t="str">
+      <c r="L125" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>118</v>
       </c>
@@ -5374,20 +5378,20 @@
       <c r="F126" s="1">
         <v>71.400000000000006</v>
       </c>
-      <c r="G126" s="1">
+      <c r="H126" s="1">
         <f t="shared" si="5"/>
         <v>120.1</v>
       </c>
-      <c r="H126" s="1">
+      <c r="J126" s="1">
         <f t="shared" si="6"/>
         <v>120.1</v>
       </c>
-      <c r="J126" s="1" t="str">
+      <c r="L126" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>119</v>
       </c>
@@ -5406,20 +5410,20 @@
       <c r="F127" s="1">
         <v>1.4</v>
       </c>
-      <c r="G127" s="1">
+      <c r="H127" s="1">
         <f t="shared" si="5"/>
         <v>120.69999999999999</v>
       </c>
-      <c r="H127" s="1">
+      <c r="J127" s="1">
         <f t="shared" si="6"/>
         <v>120.69999999999999</v>
       </c>
-      <c r="J127" s="1" t="str">
+      <c r="L127" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>120</v>
       </c>
@@ -5435,20 +5439,20 @@
       <c r="F128" s="1">
         <v>6.3</v>
       </c>
-      <c r="G128" s="1">
+      <c r="H128" s="1">
         <f t="shared" si="5"/>
         <v>65.400000000000006</v>
       </c>
-      <c r="H128" s="1">
+      <c r="J128" s="1">
         <f t="shared" si="6"/>
         <v>65.400000000000006</v>
       </c>
-      <c r="J128" s="1" t="str">
+      <c r="L128" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>121</v>
       </c>
@@ -5467,20 +5471,20 @@
       <c r="F129" s="1">
         <v>4.2</v>
       </c>
-      <c r="G129" s="1">
+      <c r="H129" s="1">
         <f t="shared" si="5"/>
         <v>84.100000000000009</v>
       </c>
-      <c r="H129" s="1">
+      <c r="J129" s="1">
         <f t="shared" si="6"/>
         <v>84.100000000000009</v>
       </c>
-      <c r="J129" s="1" t="str">
+      <c r="L129" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>122</v>
       </c>
@@ -5499,20 +5503,20 @@
       <c r="F130" s="1">
         <v>4.2</v>
       </c>
-      <c r="G130" s="1">
+      <c r="H130" s="1">
         <f t="shared" si="5"/>
         <v>138.6</v>
       </c>
-      <c r="H130" s="1">
+      <c r="J130" s="1">
         <f t="shared" si="6"/>
         <v>138.6</v>
       </c>
-      <c r="J130" s="1" t="str">
-        <f t="shared" ref="J130:J149" si="8">IF(AND(100+$M$9&gt;H130,100-$M$9&lt;H130),"Pass","Fail")</f>
+      <c r="L130" s="1" t="str">
+        <f t="shared" ref="L130:L149" si="8">IF(AND(100+$O$9&gt;J130,100-$O$9&lt;J130),"Pass","Fail")</f>
         <v>Fail</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>123</v>
       </c>
@@ -5528,20 +5532,20 @@
       <c r="F131" s="1">
         <v>0</v>
       </c>
-      <c r="G131" s="1">
-        <f t="shared" ref="G131:G149" si="9">SUM(B131:F131)</f>
+      <c r="H131" s="1">
+        <f t="shared" ref="H131:H149" si="9">SUM(B131:F131)</f>
         <v>54.9</v>
       </c>
-      <c r="H131" s="1">
-        <f t="shared" ref="H131:H149" si="10">G131</f>
+      <c r="J131" s="1">
+        <f t="shared" ref="J131:J149" si="10">H131</f>
         <v>54.9</v>
       </c>
-      <c r="J131" s="1" t="str">
+      <c r="L131" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>124</v>
       </c>
@@ -5560,40 +5564,40 @@
       <c r="F132" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G132" s="1">
+      <c r="H132" s="1">
         <f t="shared" si="9"/>
         <v>134.4</v>
       </c>
-      <c r="H132" s="1">
+      <c r="J132" s="1">
         <f t="shared" si="10"/>
         <v>134.4</v>
       </c>
-      <c r="J132" s="1" t="str">
+      <c r="L132" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B133" s="1">
         <v>17.3</v>
       </c>
-      <c r="G133" s="1">
+      <c r="H133" s="1">
         <f t="shared" si="9"/>
         <v>17.3</v>
       </c>
-      <c r="H133" s="1">
+      <c r="J133" s="1">
         <f t="shared" si="10"/>
         <v>17.3</v>
       </c>
-      <c r="J133" s="1" t="str">
+      <c r="L133" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>126</v>
       </c>
@@ -5606,20 +5610,20 @@
       <c r="F134" s="1">
         <v>11.1</v>
       </c>
-      <c r="G134" s="1">
+      <c r="H134" s="1">
         <f t="shared" si="9"/>
         <v>149.4</v>
       </c>
-      <c r="H134" s="1">
+      <c r="J134" s="1">
         <f t="shared" si="10"/>
         <v>149.4</v>
       </c>
-      <c r="J134" s="1" t="str">
+      <c r="L134" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>127</v>
       </c>
@@ -5638,20 +5642,20 @@
       <c r="F135" s="1">
         <v>5.6</v>
       </c>
-      <c r="G135" s="1">
+      <c r="H135" s="1">
         <f t="shared" si="9"/>
         <v>91.199999999999989</v>
       </c>
-      <c r="H135" s="1">
+      <c r="J135" s="1">
         <f t="shared" si="10"/>
         <v>91.199999999999989</v>
       </c>
-      <c r="J135" s="1" t="str">
+      <c r="L135" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>128</v>
       </c>
@@ -5670,20 +5674,20 @@
       <c r="F136" s="1">
         <v>8.1</v>
       </c>
-      <c r="G136" s="1">
+      <c r="H136" s="1">
         <f t="shared" si="9"/>
         <v>91.4</v>
       </c>
-      <c r="H136" s="1">
+      <c r="J136" s="1">
         <f t="shared" si="10"/>
         <v>91.4</v>
       </c>
-      <c r="J136" s="1" t="str">
+      <c r="L136" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>129</v>
       </c>
@@ -5702,20 +5706,20 @@
       <c r="F137" s="1">
         <v>0.7</v>
       </c>
-      <c r="G137" s="1">
+      <c r="H137" s="1">
         <f t="shared" si="9"/>
         <v>72.399999999999991</v>
       </c>
-      <c r="H137" s="1">
+      <c r="J137" s="1">
         <f t="shared" si="10"/>
         <v>72.399999999999991</v>
       </c>
-      <c r="J137" s="1" t="str">
+      <c r="L137" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>130</v>
       </c>
@@ -5731,40 +5735,40 @@
       <c r="F138" s="1">
         <v>38</v>
       </c>
-      <c r="G138" s="1">
+      <c r="H138" s="1">
         <f t="shared" si="9"/>
         <v>78.2</v>
       </c>
-      <c r="H138" s="1">
+      <c r="J138" s="1">
         <f t="shared" si="10"/>
         <v>78.2</v>
       </c>
-      <c r="J138" s="1" t="str">
+      <c r="L138" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B139" s="1">
         <v>21.3</v>
       </c>
-      <c r="G139" s="1">
+      <c r="H139" s="1">
         <f t="shared" si="9"/>
         <v>21.3</v>
       </c>
-      <c r="H139" s="1">
+      <c r="J139" s="1">
         <f t="shared" si="10"/>
         <v>21.3</v>
       </c>
-      <c r="J139" s="1" t="str">
+      <c r="L139" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>132</v>
       </c>
@@ -5783,20 +5787,20 @@
       <c r="F140" s="1">
         <v>0</v>
       </c>
-      <c r="G140" s="1">
+      <c r="H140" s="1">
         <f t="shared" si="9"/>
         <v>112.7</v>
       </c>
-      <c r="H140" s="1">
+      <c r="J140" s="1">
         <f t="shared" si="10"/>
         <v>112.7</v>
       </c>
-      <c r="J140" s="1" t="str">
+      <c r="L140" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>133</v>
       </c>
@@ -5815,20 +5819,20 @@
       <c r="F141" s="1">
         <v>8.4</v>
       </c>
-      <c r="G141" s="1">
+      <c r="H141" s="1">
         <f t="shared" si="9"/>
         <v>120.6</v>
       </c>
-      <c r="H141" s="1">
+      <c r="J141" s="1">
         <f t="shared" si="10"/>
         <v>120.6</v>
       </c>
-      <c r="J141" s="1" t="str">
+      <c r="L141" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>134</v>
       </c>
@@ -5847,20 +5851,20 @@
       <c r="F142" s="1">
         <v>14.2</v>
       </c>
-      <c r="G142" s="1">
+      <c r="H142" s="1">
         <f t="shared" si="9"/>
         <v>91.7</v>
       </c>
-      <c r="H142" s="1">
+      <c r="J142" s="1">
         <f t="shared" si="10"/>
         <v>91.7</v>
       </c>
-      <c r="J142" s="1" t="str">
+      <c r="L142" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>133</v>
       </c>
@@ -5879,20 +5883,20 @@
       <c r="F143" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G143" s="1">
+      <c r="H143" s="1">
         <f t="shared" si="9"/>
         <v>92.3</v>
       </c>
-      <c r="H143" s="1">
+      <c r="J143" s="1">
         <f t="shared" si="10"/>
         <v>92.3</v>
       </c>
-      <c r="J143" s="1" t="str">
+      <c r="L143" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>152</v>
       </c>
@@ -5911,20 +5915,20 @@
       <c r="F144" s="1">
         <v>0.8</v>
       </c>
-      <c r="G144" s="1">
+      <c r="H144" s="1">
         <f t="shared" si="9"/>
         <v>125.3</v>
       </c>
-      <c r="H144" s="1">
+      <c r="J144" s="1">
         <f t="shared" si="10"/>
         <v>125.3</v>
       </c>
-      <c r="J144" s="1" t="str">
+      <c r="L144" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>135</v>
       </c>
@@ -5943,20 +5947,20 @@
       <c r="F145" s="1">
         <v>4.2</v>
       </c>
-      <c r="G145" s="1">
+      <c r="H145" s="1">
         <f t="shared" si="9"/>
         <v>66.7</v>
       </c>
-      <c r="H145" s="1">
+      <c r="J145" s="1">
         <f t="shared" si="10"/>
         <v>66.7</v>
       </c>
-      <c r="J145" s="1" t="str">
+      <c r="L145" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>136</v>
       </c>
@@ -5972,40 +5976,40 @@
       <c r="F146" s="1">
         <v>0</v>
       </c>
-      <c r="G146" s="1">
+      <c r="H146" s="1">
         <f t="shared" si="9"/>
         <v>69.300000000000011</v>
       </c>
-      <c r="H146" s="1">
+      <c r="J146" s="1">
         <f t="shared" si="10"/>
         <v>69.300000000000011</v>
       </c>
-      <c r="J146" s="1" t="str">
+      <c r="L146" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B147" s="1">
         <v>52.2</v>
       </c>
-      <c r="G147" s="1">
+      <c r="H147" s="1">
         <f t="shared" si="9"/>
         <v>52.2</v>
       </c>
-      <c r="H147" s="1">
+      <c r="J147" s="1">
         <f t="shared" si="10"/>
         <v>52.2</v>
       </c>
-      <c r="J147" s="1" t="str">
+      <c r="L147" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>138</v>
       </c>
@@ -6018,20 +6022,20 @@
       <c r="E148" s="1">
         <v>36.4</v>
       </c>
-      <c r="G148" s="1">
+      <c r="H148" s="1">
         <f t="shared" si="9"/>
         <v>96.4</v>
       </c>
-      <c r="H148" s="1">
+      <c r="J148" s="1">
         <f t="shared" si="10"/>
         <v>96.4</v>
       </c>
-      <c r="J148" s="1" t="str">
+      <c r="L148" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>139</v>
       </c>
@@ -6047,21 +6051,21 @@
       <c r="F149" s="1">
         <v>37.200000000000003</v>
       </c>
-      <c r="G149" s="1">
+      <c r="H149" s="1">
         <f t="shared" si="9"/>
         <v>73.3</v>
       </c>
-      <c r="H149" s="1">
+      <c r="J149" s="1">
         <f t="shared" si="10"/>
         <v>73.3</v>
       </c>
-      <c r="J149" s="1" t="str">
+      <c r="L149" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Fail</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G149">
+  <conditionalFormatting sqref="H2:H149">
     <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
@@ -6072,7 +6076,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H149">
+  <conditionalFormatting sqref="J2:J149">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>100.5</formula>
     </cfRule>
@@ -6084,12 +6088,12 @@
       <formula>100.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J149">
+  <conditionalFormatting sqref="L2:L149">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",J2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Fail",L2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pass",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
